--- a/WBS_sample1.xlsx
+++ b/WBS_sample1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="5" lowestEdited="6" rupBuild="10.105.280.55985"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="4" r:id="rId1"/>
@@ -13,12 +13,11 @@
     <sheet name="WBS" sheetId="1" r:id="rId4"/>
     <sheet name="기타" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -35,8 +34,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>종료일</t>
         </r>
@@ -45,7 +42,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>-</t>
         </r>
@@ -54,8 +50,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>시작일
 토</t>
@@ -65,7 +59,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>,</t>
         </r>
@@ -74,8 +67,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>일</t>
         </r>
@@ -84,7 +75,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>,</t>
         </r>
@@ -93,8 +83,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>공휴일</t>
         </r>
@@ -103,7 +91,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -112,8 +99,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>제외
 공휴일은</t>
@@ -123,7 +108,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> [</t>
         </r>
@@ -132,8 +116,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>기타</t>
         </r>
@@ -142,7 +124,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">] </t>
         </r>
@@ -151,8 +132,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>시트에</t>
         </r>
@@ -161,7 +140,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -170,8 +148,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t xml:space="preserve">설정
 </t>
@@ -185,8 +161,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>계획</t>
         </r>
@@ -195,7 +169,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -204,8 +177,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>시작일</t>
         </r>
@@ -214,7 +185,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">, </t>
         </r>
@@ -223,8 +193,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>종료일</t>
         </r>
@@ -233,7 +201,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">, </t>
         </r>
@@ -242,8 +209,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>기간으로</t>
         </r>
@@ -252,7 +217,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -261,8 +225,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t xml:space="preserve">계산됨
 </t>
@@ -277,8 +239,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>입력값</t>
         </r>
@@ -292,8 +252,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>최하위</t>
         </r>
@@ -303,7 +261,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Task </t>
         </r>
@@ -313,8 +270,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>전체를</t>
         </r>
@@ -324,7 +279,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -334,8 +288,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>합함면</t>
         </r>
@@ -345,7 +297,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 100</t>
         </r>
@@ -355,8 +306,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>이</t>
         </r>
@@ -366,7 +315,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -376,8 +324,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>되도록</t>
         </r>
@@ -387,7 +333,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -397,8 +342,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>중요도를</t>
         </r>
@@ -408,7 +351,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -418,8 +360,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>고려하여</t>
         </r>
@@ -429,7 +369,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -439,8 +378,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>분배</t>
         </r>
@@ -454,7 +391,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>Task</t>
         </r>
@@ -464,8 +400,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>계획율</t>
         </r>
@@ -475,7 +409,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> * </t>
         </r>
@@ -485,8 +418,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t xml:space="preserve">가중치
 </t>
@@ -501,7 +432,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>Task</t>
         </r>
@@ -511,8 +441,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>완료율</t>
         </r>
@@ -522,7 +450,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> * </t>
         </r>
@@ -532,8 +459,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t xml:space="preserve">가중치
 </t>
@@ -548,7 +473,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>Task</t>
         </r>
@@ -558,8 +482,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>완료율</t>
         </r>
@@ -569,7 +491,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 100% : </t>
         </r>
@@ -579,8 +500,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>완료
 시작일</t>
@@ -591,7 +510,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -601,8 +519,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>미도래</t>
         </r>
@@ -612,7 +528,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> : -
 </t>
@@ -623,8 +538,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>시작일</t>
         </r>
@@ -634,7 +547,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -644,8 +556,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>이후</t>
         </r>
@@ -655,7 +565,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -665,8 +574,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>종료일</t>
         </r>
@@ -676,7 +583,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -686,8 +592,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>이전</t>
         </r>
@@ -697,7 +601,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> : </t>
         </r>
@@ -707,8 +610,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>진행중
 종료일</t>
@@ -719,7 +620,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -729,8 +629,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>이후</t>
         </r>
@@ -740,7 +638,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> : </t>
         </r>
@@ -750,8 +647,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t xml:space="preserve">지연
 </t>
@@ -762,7 +657,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -777,8 +671,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>최하위</t>
         </r>
@@ -788,7 +680,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Task </t>
         </r>
@@ -798,8 +689,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>만</t>
         </r>
@@ -809,7 +698,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -819,8 +707,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>입력하고</t>
         </r>
@@ -830,7 +716,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -840,8 +725,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>상위는</t>
         </r>
@@ -851,7 +734,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -861,8 +743,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>최소값</t>
         </r>
@@ -872,7 +752,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -882,8 +761,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t xml:space="preserve">선택
 </t>
@@ -898,8 +775,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>최하위</t>
         </r>
@@ -909,7 +784,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Task </t>
         </r>
@@ -919,8 +793,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>만</t>
         </r>
@@ -930,7 +802,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -940,8 +811,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>입력하고</t>
         </r>
@@ -951,7 +820,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -961,8 +829,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>상위는</t>
         </r>
@@ -972,7 +838,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -982,8 +847,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>최대값</t>
         </r>
@@ -993,7 +856,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1003,8 +865,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t xml:space="preserve">선택
 </t>
@@ -1014,7 +874,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1026,462 +885,348 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t>계획일자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>시작일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>종료일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>상태</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>기간</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>공휴일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>크리스마스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>신정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>삼일절</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>WBS-ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LV1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LV2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LV3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LV4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사업수행계획서 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>착수보고회</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>착수보고회 자료작성 및 검토</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>WBS 작성 및 보완</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>주간보고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>월간보고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>중간보고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>위험관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이슈관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>요구사항추적표 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>분석단계 검토수행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>설계단계 검토수행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>통합시험 검토수행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>인수시험 검토수행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>셜계감리 수검</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>설계감리 준비</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>설계감리 시정조치</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>최종감리 준비</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>최종감리 수검</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>최종감리 시정조치</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>완료보고회</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>완료보고회 자료 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>착수계 작성 및 제출</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>단계별 산출물 템플릿 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>유지보수 계획서 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>산출물 목록 정의</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>실행일자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>시스템 구축</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>환경구성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>분석</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>개발 시스템 구성 및 테스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>구현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>통합테스트 수행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이관</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>운영자 매뉴얼 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이관계획 수립</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>이관실행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>현업인터뷰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>설계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사업관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>프로젝트 계획</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사업수행계획수립</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>프로젝트 착수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>단계준비</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>단계통제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>외부감리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>프로젝트 완료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>유지보수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>착수보고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>작업계획 수립</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>보고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>위험 및 이슈관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>요구사항관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>품질관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>검토</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>설계감리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>최종감리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>완료보고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>12/11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>12/15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>12/18</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>12/22</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>12/25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>12/29</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1/1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1/5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1/8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1/12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1/15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1/19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1/22</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1/26</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1/29</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2/2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2/5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2/9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2/12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2/16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2/19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2/23</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2/26</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3/2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3/5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3/9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3/12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3/16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3/19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3/23</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3/26</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3/30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4/2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4/6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4/9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4/13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4/16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4/20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4/23</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4/27</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4/30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5/4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4주</t>
@@ -1539,7 +1284,6 @@
   </si>
   <si>
     <t>1주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2주</t>
@@ -1549,415 +1293,313 @@
   </si>
   <si>
     <t>1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.1.1.1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.2.1.3.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>산출물</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>완료율</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>가중치</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.1.1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.2.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.2.1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.2.1.1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.2.1.2.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.3.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.3.1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.3.1.1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.3.1.2.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.4.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.4.1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.4.1.1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.4.1.2.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.4.1.3.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.4.2.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.4.2.1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.4.2.2.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.4.3.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.4.3.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.4.4.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.4.4.1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.4.4.2.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.4.5.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.4.5.1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.4.5.2.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.4.5.3.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.4.5.4.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.5.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.5.1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.5.1.1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.5.1.2.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.5.1.3.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.5.2.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.5.2.1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.5.2.2.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.5.2.3.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.6.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.6.1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.6.1.1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.6.1.2.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.7.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.7.1.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Task
 계획율(%)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>공정
 완료율(%)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Task
 완료율(%)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>공정
 계획율(%)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>품질보증계획 수립</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>문서코드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>버전</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>작성일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>작성자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>WBS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>문서번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>개정일자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>개정번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>버전</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>개정사유</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>개정내역</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>개정자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>승인자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>기준일자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>공정계획율</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>공정완료율</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>계획율</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>완료율</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>시스템구축</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>전체</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>계획대비실적차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>총괄표</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>프로젝트 공정계획표(WBS)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>프로젝트명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>System A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>프로세스 분석</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>업부 문석</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>데이터 분석</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>시스템 분석</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>요구사항 정의</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>프로세스 설계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>데이터베이스 설계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>시스템 설계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>인터페이스 분석</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>화면설계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>인터페이스 설계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>데이터베이스 적용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>화면 개발</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>인터페이스 개발</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>단위테스트 수행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>결함조치</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사용자 매뉴얼 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>시험</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>기준일자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>유지보수계획</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.7.1.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>WBS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1965,8 +1607,6 @@
         <sz val="20"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>○○○○</t>
     </r>
@@ -1975,255 +1615,725 @@
         <sz val="20"/>
         <color theme="1"/>
         <rFont val="나눔바른고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>프로젝트</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019-12-25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2020-01-01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>설날</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2020-01-24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2020-01-25</t>
   </si>
   <si>
     <t>2020-02-01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2019</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2020</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2020-03-01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 공정계획표(WBS)ㅇㅇㅇㅇ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="47">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="나눔바른고딕"/>
       <color theme="1"/>
-      <name val="나눔바른고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="나눔바른고딕"/>
       <color theme="0"/>
-      <name val="나눔바른고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="20.0"/>
+      <name val="나눔바른고딕"/>
       <color theme="1"/>
-      <name val="나눔바른고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="나눔바른고딕"/>
       <color theme="1"/>
-      <name val="나눔바른고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="나눔바른고딕"/>
       <color theme="1"/>
-      <name val="나눔바른고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="40"/>
+      <sz val="40.0"/>
+      <name val="나눔바른고딕"/>
       <color theme="1"/>
-      <name val="나눔바른고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="나눔바른고딕"/>
       <color theme="1"/>
-      <name val="나눔바른고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="18.0"/>
+      <name val="나눔바른고딕"/>
       <color theme="1"/>
-      <name val="나눔바른고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
+      <name val="나눔바른고딕"/>
       <color theme="1"/>
-      <name val="나눔바른고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
+      <name val="나눔바른고딕"/>
       <color theme="0"/>
-      <name val="나눔바른고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="9.0"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="9.0"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="9.0"/>
       <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="9.0"/>
       <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="20.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="돋움_x0000_"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="Tahoma_x0000_"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
+      <name val="돋움_x0000_"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
+      <name val="Tahoma_x0000_"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0" tint="-0.150000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="24">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2231,8 +2341,80 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2240,528 +2422,586 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="20" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="21" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="50">
+    <cellStyle name="20% - 강조색1" xfId="26" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="30" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="34" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="38" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="42" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="27" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="31" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="35" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="39" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="43" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="28" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="32" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="36" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="40" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="44" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="48" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="25" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="29" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="33" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="37" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="41" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="45" builtinId="49"/>
+    <cellStyle name="경고문" xfId="10" builtinId="11"/>
+    <cellStyle name="계산" xfId="18" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="23" builtinId="27"/>
+    <cellStyle name="메모" xfId="9" builtinId="10"/>
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
+    <cellStyle name="보통" xfId="24" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="49" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="3" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="21" builtinId="25"/>
+    <cellStyle name="입력" xfId="16" builtinId="20"/>
+    <cellStyle name="제목" xfId="11" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="12" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="13" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="14" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="15" builtinId="19"/>
+    <cellStyle name="좋음" xfId="22" builtinId="26"/>
+    <cellStyle name="출력" xfId="17" builtinId="21"/>
+    <cellStyle name="통화" xfId="4" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="6" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="표준_Sheet2" xfId="2"/>
   </cellStyles>
   <dxfs count="37">
     <dxf>
       <fill>
-        <patternFill patternType="lightUp"/>
+        <patternFill patternType="lightUp">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp"/>
+        <patternFill patternType="lightUp">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -2946,15 +3186,6 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2965,7 +3196,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>3648</xdr:rowOff>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
@@ -2973,42 +3204,54 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="2" name="AutoShape 3"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="3108798"/>
-          <a:ext cx="6477000" cy="34452"/>
+          <a:off x="2030730" y="3301365"/>
+          <a:ext cx="6477000" cy="34290"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="straightConnector1"/>
         <a:noFill/>
-        <a:ln w="63500">
+        <a:ln w="63500" cap="flat" cmpd="sng">
           <a:solidFill>
-            <a:srgbClr val="BFBFBF"/>
+            <a:srgbClr val="BFBFBF">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3273,23 +3516,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="4" width="9" style="54"/>
-    <col min="5" max="5" width="9" style="54" customWidth="1"/>
-    <col min="6" max="11" width="9" style="54"/>
-    <col min="12" max="12" width="12.875" style="54" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="54"/>
+    <col min="1" max="4" style="54" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="54" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="11" style="54" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" style="54" width="12.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="16384" style="54" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="51"/>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -3304,7 +3547,7 @@
       <c r="L1" s="52"/>
       <c r="M1" s="53"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="55"/>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
@@ -3319,7 +3562,7 @@
       <c r="L2" s="56"/>
       <c r="M2" s="57"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="55"/>
       <c r="B3" s="56"/>
       <c r="C3" s="56"/>
@@ -3334,7 +3577,7 @@
       <c r="L3" s="56"/>
       <c r="M3" s="57"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="55"/>
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
@@ -3349,7 +3592,7 @@
       <c r="L4" s="56"/>
       <c r="M4" s="57"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="55"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
@@ -3364,7 +3607,7 @@
       <c r="L5" s="56"/>
       <c r="M5" s="57"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="55"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
@@ -3379,7 +3622,7 @@
       <c r="L6" s="56"/>
       <c r="M6" s="57"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="55"/>
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
@@ -3394,7 +3637,7 @@
       <c r="L7" s="56"/>
       <c r="M7" s="57"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="55"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
@@ -3409,7 +3652,7 @@
       <c r="L8" s="56"/>
       <c r="M8" s="57"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="55"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
@@ -3424,7 +3667,7 @@
       <c r="L9" s="56"/>
       <c r="M9" s="57"/>
     </row>
-    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="31.500000">
       <c r="A10" s="55"/>
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
@@ -3441,7 +3684,7 @@
       </c>
       <c r="M10" s="57"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="55"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
@@ -3456,7 +3699,7 @@
       <c r="L11" s="56"/>
       <c r="M11" s="57"/>
     </row>
-    <row r="12" spans="1:13" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="48.000000">
       <c r="A12" s="55"/>
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
@@ -3473,7 +3716,7 @@
       </c>
       <c r="M12" s="57"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="55"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
@@ -3488,7 +3731,7 @@
       <c r="L13" s="56"/>
       <c r="M13" s="57"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="55"/>
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
@@ -3503,7 +3746,7 @@
       <c r="L14" s="56"/>
       <c r="M14" s="57"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="55"/>
       <c r="B15" s="56"/>
       <c r="C15" s="56"/>
@@ -3518,7 +3761,7 @@
       <c r="L15" s="56"/>
       <c r="M15" s="57"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="55"/>
       <c r="B16" s="56"/>
       <c r="C16" s="56"/>
@@ -3533,7 +3776,7 @@
       <c r="L16" s="56"/>
       <c r="M16" s="57"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" s="55"/>
       <c r="B17" s="56"/>
       <c r="C17" s="56"/>
@@ -3548,7 +3791,7 @@
       <c r="L17" s="56"/>
       <c r="M17" s="57"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="55"/>
       <c r="B18" s="56"/>
       <c r="C18" s="56"/>
@@ -3556,16 +3799,16 @@
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
-      <c r="H18" s="92" t="s">
+      <c r="H18" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="I18" s="92"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
       <c r="M18" s="57"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" s="55"/>
       <c r="B19" s="56"/>
       <c r="C19" s="56"/>
@@ -3573,16 +3816,16 @@
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
-      <c r="H19" s="92" t="s">
+      <c r="H19" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="I19" s="92"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
       <c r="M19" s="57"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20" s="55"/>
       <c r="B20" s="56"/>
       <c r="C20" s="56"/>
@@ -3590,16 +3833,16 @@
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
-      <c r="H20" s="92" t="s">
+      <c r="H20" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="I20" s="92"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
       <c r="M20" s="57"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="55"/>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
@@ -3607,16 +3850,16 @@
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
-      <c r="H21" s="92" t="s">
+      <c r="H21" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="I21" s="92"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
       <c r="M21" s="57"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22" s="55"/>
       <c r="B22" s="56"/>
       <c r="C22" s="56"/>
@@ -3631,7 +3874,7 @@
       <c r="L22" s="56"/>
       <c r="M22" s="57"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23" s="55"/>
       <c r="B23" s="56"/>
       <c r="C23" s="56"/>
@@ -3646,7 +3889,7 @@
       <c r="L23" s="56"/>
       <c r="M23" s="57"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="55"/>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
@@ -3661,7 +3904,7 @@
       <c r="L24" s="56"/>
       <c r="M24" s="57"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25" s="55"/>
       <c r="B25" s="56"/>
       <c r="C25" s="56"/>
@@ -3676,7 +3919,7 @@
       <c r="L25" s="56"/>
       <c r="M25" s="57"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26" s="55"/>
       <c r="B26" s="56"/>
       <c r="C26" s="56"/>
@@ -3691,7 +3934,7 @@
       <c r="L26" s="56"/>
       <c r="M26" s="57"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="60"/>
       <c r="B27" s="61"/>
       <c r="C27" s="61"/>
@@ -3706,7 +3949,7 @@
       <c r="L27" s="61"/>
       <c r="M27" s="62"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="56"/>
       <c r="B28" s="56"/>
       <c r="C28" s="56"/>
@@ -3721,7 +3964,7 @@
       <c r="L28" s="56"/>
       <c r="M28" s="56"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="56"/>
       <c r="B29" s="56"/>
       <c r="C29" s="56"/>
@@ -3738,76 +3981,76 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:L21"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:L20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:L21"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="65" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="64" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="64" customWidth="1"/>
-    <col min="4" max="4" width="63.125" style="64" customWidth="1"/>
-    <col min="5" max="7" width="13.625" style="64" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="64"/>
+    <col min="1" max="1" style="65" width="6.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="64" width="14.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="64" width="22.12999916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="64" width="63.13000107" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="7" style="64" width="13.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="16384" style="64" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="97"/>
-      <c r="B1" s="98"/>
-      <c r="C1" s="103" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="93"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="104"/>
+      <c r="D1" s="100"/>
       <c r="E1" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
       <c r="E2" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="95"/>
-      <c r="G2" s="93"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="90"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
       <c r="E3" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="66" t="s">
         <v>197</v>
       </c>
@@ -3817,10 +4060,10 @@
       <c r="C5" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="92"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="67" t="s">
         <v>200</v>
       </c>
@@ -3828,279 +4071,302 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="68"/>
       <c r="B6" s="69"/>
       <c r="C6" s="63"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="63"/>
       <c r="G6" s="63"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="68"/>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="63"/>
       <c r="G7" s="63"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="68"/>
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="63"/>
       <c r="G8" s="63"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="68"/>
       <c r="B9" s="63"/>
       <c r="C9" s="63"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="63"/>
       <c r="G9" s="63"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="68"/>
       <c r="B10" s="63"/>
       <c r="C10" s="63"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="63"/>
       <c r="G10" s="63"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="68"/>
       <c r="B11" s="63"/>
       <c r="C11" s="63"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="63"/>
       <c r="G11" s="63"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="68"/>
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="63"/>
       <c r="G12" s="63"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="68"/>
       <c r="B13" s="63"/>
       <c r="C13" s="63"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="63"/>
       <c r="G13" s="63"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="68"/>
       <c r="B14" s="63"/>
       <c r="C14" s="63"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="63"/>
       <c r="G14" s="63"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="68"/>
       <c r="B15" s="63"/>
       <c r="C15" s="63"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="63"/>
       <c r="G15" s="63"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="68"/>
       <c r="B16" s="63"/>
       <c r="C16" s="63"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="63"/>
       <c r="G16" s="63"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="68"/>
       <c r="B17" s="63"/>
       <c r="C17" s="63"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="63"/>
       <c r="G17" s="63"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="68"/>
       <c r="B18" s="63"/>
       <c r="C18" s="63"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="63"/>
       <c r="G18" s="63"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="68"/>
       <c r="B19" s="63"/>
       <c r="C19" s="63"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="63"/>
       <c r="G19" s="63"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="68"/>
       <c r="B20" s="63"/>
       <c r="C20" s="63"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
       <c r="F20" s="63"/>
       <c r="G20" s="63"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="68"/>
       <c r="B21" s="63"/>
       <c r="C21" s="63"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="63"/>
       <c r="G21" s="63"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="68"/>
       <c r="B22" s="63"/>
       <c r="C22" s="63"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
       <c r="F22" s="63"/>
       <c r="G22" s="63"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="68"/>
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="63"/>
       <c r="G23" s="63"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="68"/>
       <c r="B24" s="63"/>
       <c r="C24" s="63"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
       <c r="F24" s="63"/>
       <c r="G24" s="63"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="68"/>
       <c r="B25" s="63"/>
       <c r="C25" s="63"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="63"/>
       <c r="G25" s="63"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="68"/>
       <c r="B26" s="63"/>
       <c r="C26" s="63"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="63"/>
       <c r="G26" s="63"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="68"/>
       <c r="B27" s="63"/>
       <c r="C27" s="63"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="63"/>
       <c r="G27" s="63"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="68"/>
       <c r="B28" s="63"/>
       <c r="C28" s="63"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
       <c r="F28" s="63"/>
       <c r="G28" s="63"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="68"/>
       <c r="B29" s="63"/>
       <c r="C29" s="63"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="63"/>
       <c r="G29" s="63"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="68"/>
       <c r="B30" s="63"/>
       <c r="C30" s="63"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="63"/>
       <c r="G30" s="63"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="68"/>
       <c r="B31" s="63"/>
       <c r="C31" s="63"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="63"/>
       <c r="G31" s="63"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="68"/>
       <c r="B32" s="63"/>
       <c r="C32" s="63"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="63"/>
       <c r="G32" s="63"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="68"/>
       <c r="B33" s="63"/>
       <c r="C33" s="63"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="63"/>
       <c r="G33" s="63"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="68"/>
       <c r="B34" s="63"/>
       <c r="C34" s="63"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
       <c r="F34" s="63"/>
       <c r="G34" s="63"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="68"/>
       <c r="B35" s="63"/>
       <c r="C35" s="63"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
       <c r="F35" s="63"/>
       <c r="G35" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
@@ -4112,58 +4378,36 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D35:E35"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="9" style="71"/>
-    <col min="2" max="3" width="17" style="71" customWidth="1"/>
-    <col min="4" max="4" width="17" style="75" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="71"/>
+    <col min="1" max="1" style="71" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="3" style="71" width="17.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="75" width="17.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="16384" style="71" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4">
       <c r="B3" s="77" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4">
       <c r="B4" s="70" t="s">
         <v>202</v>
       </c>
@@ -4173,26 +4417,26 @@
       </c>
       <c r="D4" s="74"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="109" t="s">
+    <row r="5" spans="2:4">
+      <c r="B5" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="106"/>
+      <c r="D5" s="107"/>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="70" t="s">
         <v>203</v>
       </c>
       <c r="C6" s="72">
         <f>WBS!N8</f>
-        <v>50.876086956521739</v>
+        <v>50.8760869565217</v>
       </c>
       <c r="D6" s="74" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4">
       <c r="B7" s="70" t="s">
         <v>204</v>
       </c>
@@ -4204,38 +4448,38 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4">
       <c r="B8" s="70" t="s">
         <v>210</v>
       </c>
       <c r="C8" s="72">
         <f>C7-C6</f>
-        <v>-37.492086956521739</v>
+        <v>-37.4920869565217</v>
       </c>
       <c r="D8" s="74" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="109" t="s">
+    <row r="9" spans="2:4">
+      <c r="B9" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="111"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" s="70" t="s">
         <v>205</v>
       </c>
       <c r="C10" s="72">
         <f>WBS!N9</f>
-        <v>15.876086956521739</v>
+        <v>15.8760869565217</v>
       </c>
       <c r="D10" s="74" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4">
       <c r="B11" s="70" t="s">
         <v>206</v>
       </c>
@@ -4247,14 +4491,14 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="109" t="s">
+    <row r="12" spans="2:4">
+      <c r="B12" s="105" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="111"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
+    </row>
+    <row r="13" spans="2:4">
       <c r="B13" s="70" t="s">
         <v>205</v>
       </c>
@@ -4266,7 +4510,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4">
       <c r="B14" s="70" t="s">
         <v>140</v>
       </c>
@@ -4278,66 +4522,68 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4">
       <c r="C15" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="10" customWidth="1"/>
-    <col min="2" max="4" width="5.125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="10"/>
-    <col min="9" max="9" width="9" style="13"/>
-    <col min="10" max="11" width="11.625" style="14" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="13"/>
-    <col min="13" max="15" width="9" style="6"/>
-    <col min="16" max="16" width="9" style="14"/>
-    <col min="17" max="17" width="28.75" style="12" customWidth="1"/>
-    <col min="18" max="18" width="1.375" style="12" customWidth="1"/>
-    <col min="19" max="39" width="5.25" style="4" customWidth="1"/>
-    <col min="40" max="16384" width="9" style="10"/>
+    <col min="1" max="1" style="10" width="7.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="4" style="10" width="5.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="10" width="23.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="14" width="16.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="14" width="11.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="10" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="13" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="11" style="14" width="11.63000011" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" style="13" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="15" style="6" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="16" max="16" style="14" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="17" max="17" style="12" width="28.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="18" style="12" width="1.38000000" customWidth="1" outlineLevel="0"/>
+    <col min="19" max="39" style="4" width="5.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="40" max="16384" style="10" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
+    <row r="1" spans="1:39" s="3" customFormat="1" ht="40.500000" customHeight="1">
+      <c r="A1" s="108" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
       <c r="R1" s="7"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -4361,7 +4607,7 @@
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
     </row>
-    <row r="2" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" s="3" customFormat="1" ht="12.000000">
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="I2" s="5"/>
@@ -4396,7 +4642,7 @@
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
     </row>
-    <row r="3" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" s="3" customFormat="1" ht="12.000000">
       <c r="A3" s="50" t="s">
         <v>233</v>
       </c>
@@ -4437,7 +4683,7 @@
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
     </row>
-    <row r="4" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" s="3" customFormat="1" ht="12.000000">
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="I4" s="6"/>
@@ -4453,68 +4699,68 @@
       <c r="S4" s="83" t="s">
         <v>244</v>
       </c>
-      <c r="T4" s="91" t="s">
+      <c r="T4" s="83" t="s">
         <v>244</v>
       </c>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="83" t="s">
         <v>244</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="X4" s="91" t="s">
+      <c r="X4" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="Y4" s="91" t="s">
+      <c r="Y4" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="Z4" s="91" t="s">
+      <c r="Z4" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="AA4" s="91" t="s">
+      <c r="AA4" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="AB4" s="91" t="s">
+      <c r="AB4" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="AC4" s="91" t="s">
+      <c r="AC4" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="AD4" s="91" t="s">
+      <c r="AD4" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="AE4" s="91" t="s">
+      <c r="AE4" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="AF4" s="91" t="s">
+      <c r="AF4" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="AG4" s="91" t="s">
+      <c r="AG4" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="AH4" s="91" t="s">
+      <c r="AH4" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="AI4" s="91" t="s">
+      <c r="AI4" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="AJ4" s="91" t="s">
+      <c r="AJ4" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="AK4" s="91" t="s">
+      <c r="AK4" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="AL4" s="91" t="s">
+      <c r="AL4" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="AM4" s="91" t="s">
+      <c r="AM4" s="83" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" s="3" customFormat="1" ht="12.000000">
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -4592,52 +4838,52 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="115" t="s">
+    <row r="6" spans="1:39" s="3" customFormat="1" ht="12.000000">
+      <c r="A6" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="E6" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117" t="s">
+      <c r="F6" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="118" t="s">
+      <c r="I6" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="J6" s="117" t="s">
+      <c r="J6" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="117"/>
-      <c r="L6" s="118" t="s">
+      <c r="K6" s="83"/>
+      <c r="L6" s="113" t="s">
         <v>186</v>
       </c>
-      <c r="M6" s="120" t="s">
+      <c r="M6" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="N6" s="113" t="s">
+      <c r="N6" s="109" t="s">
         <v>187</v>
       </c>
-      <c r="O6" s="113" t="s">
+      <c r="O6" s="109" t="s">
         <v>185</v>
       </c>
-      <c r="P6" s="117" t="s">
+      <c r="P6" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="117" t="s">
+      <c r="Q6" s="83" t="s">
         <v>139</v>
       </c>
       <c r="R6" s="7"/>
@@ -4705,32 +4951,32 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="115"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="116"/>
+    <row r="7" spans="1:39" s="3" customFormat="1" ht="12.000000">
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112"/>
       <c r="F7" s="83" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="117"/>
-      <c r="I7" s="119"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="114"/>
       <c r="J7" s="83" t="s">
         <v>1</v>
       </c>
       <c r="K7" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="119"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="117"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
       <c r="R7" s="7"/>
       <c r="S7" s="83" t="s">
         <v>132</v>
@@ -4796,7 +5042,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39">
       <c r="A8" s="16" t="s">
         <v>213</v>
       </c>
@@ -4823,7 +5069,7 @@
       </c>
       <c r="N8" s="79">
         <f>SUM(N9,N56)</f>
-        <v>50.876086956521739</v>
+        <v>50.8760869565217</v>
       </c>
       <c r="O8" s="79">
         <f>SUM(O9,O56)</f>
@@ -4832,29 +5078,29 @@
       <c r="P8" s="24"/>
       <c r="Q8" s="24"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="88"/>
-      <c r="AJ8" s="88"/>
-      <c r="AK8" s="88"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="88"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="87"/>
+      <c r="AE8" s="87"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="87"/>
+      <c r="AL8" s="87"/>
+      <c r="AM8" s="87"/>
+    </row>
+    <row r="9" spans="1:39">
       <c r="A9" s="43" t="s">
         <v>135</v>
       </c>
@@ -4864,11 +5110,11 @@
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
-      <c r="F9" s="86">
+      <c r="F9" s="85">
         <f>MIN(F10,F13,F18,F22,F40,F49,F53)</f>
         <v>43806</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="85">
         <f>MAX(G10,G13,G18,G22,G40,G49,G53)</f>
         <v>43955</v>
       </c>
@@ -4883,7 +5129,7 @@
       </c>
       <c r="N9" s="80">
         <f>SUM(N53,N49,N40,N22,N18,N13,N10)</f>
-        <v>15.876086956521739</v>
+        <v>15.8760869565217</v>
       </c>
       <c r="O9" s="80">
         <f>SUM(O53,O49,O40,O22,O18,O13,O10)</f>
@@ -4891,29 +5137,29 @@
       </c>
       <c r="P9" s="46"/>
       <c r="Q9" s="46"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="87"/>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="87"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="87"/>
-      <c r="AM9" s="87"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="86"/>
+    </row>
+    <row r="10" spans="1:39">
       <c r="A10" s="43" t="s">
         <v>136</v>
       </c>
@@ -4923,11 +5169,11 @@
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="85">
+      <c r="F10" s="84">
         <f>MIN(F11)</f>
         <v>43813</v>
       </c>
-      <c r="G10" s="85">
+      <c r="G10" s="84">
         <f>MAX(G11)</f>
         <v>43814</v>
       </c>
@@ -4937,42 +5183,42 @@
       <c r="K10" s="27"/>
       <c r="L10" s="28"/>
       <c r="M10" s="29">
-        <f t="shared" ref="M10:O11" si="0">SUM(M11)</f>
+        <f>SUM(M11)</f>
         <v>2</v>
       </c>
       <c r="N10" s="81">
-        <f t="shared" si="0"/>
+        <f>SUM(N11)</f>
         <v>2</v>
       </c>
       <c r="O10" s="81">
-        <f t="shared" si="0"/>
+        <f>SUM(O11)</f>
         <v>2</v>
       </c>
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="89"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S10" s="88"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="88"/>
+      <c r="AD10" s="88"/>
+      <c r="AE10" s="88"/>
+      <c r="AF10" s="88"/>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="88"/>
+      <c r="AJ10" s="88"/>
+      <c r="AK10" s="88"/>
+      <c r="AL10" s="88"/>
+      <c r="AM10" s="88"/>
+    </row>
+    <row r="11" spans="1:39">
       <c r="A11" s="43" t="s">
         <v>142</v>
       </c>
@@ -4996,42 +5242,42 @@
       <c r="K11" s="31"/>
       <c r="L11" s="32"/>
       <c r="M11" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(M12)</f>
         <v>2</v>
       </c>
       <c r="N11" s="82">
-        <f t="shared" si="0"/>
+        <f>SUM(N12)</f>
         <v>2</v>
       </c>
       <c r="O11" s="82">
-        <f t="shared" si="0"/>
+        <f>SUM(O12)</f>
         <v>2</v>
       </c>
       <c r="P11" s="31"/>
       <c r="Q11" s="31"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="90"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="90"/>
-      <c r="AL11" s="90"/>
-      <c r="AM11" s="90"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="89"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="89"/>
+      <c r="AJ11" s="89"/>
+      <c r="AK11" s="89"/>
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="89"/>
+    </row>
+    <row r="12" spans="1:39">
       <c r="A12" s="43" t="s">
         <v>137</v>
       </c>
@@ -5072,7 +5318,7 @@
         <v>2</v>
       </c>
       <c r="P12" s="39" t="str">
-        <f>IF($L12=1,"완료", IF($F12*1&gt;$B$3*1,"-",IF($G12*1&lt;$B$3*1,"지연","진행중")))</f>
+        <f>IF($L12=1,"완료",IF($F12*1&gt;$B$3*1,"-",IF($G12*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>완료</v>
       </c>
       <c r="Q12" s="39"/>
@@ -5098,7 +5344,7 @@
       <c r="AL12" s="44"/>
       <c r="AM12" s="44"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39">
       <c r="A13" s="43" t="s">
         <v>143</v>
       </c>
@@ -5108,11 +5354,11 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="85">
+      <c r="F13" s="84">
         <f>MIN(F14)</f>
         <v>43810</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="84">
         <f>MAX(G14)</f>
         <v>43817</v>
       </c>
@@ -5135,29 +5381,29 @@
       </c>
       <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="89"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="89"/>
-      <c r="AH13" s="89"/>
-      <c r="AI13" s="89"/>
-      <c r="AJ13" s="89"/>
-      <c r="AK13" s="89"/>
-      <c r="AL13" s="89"/>
-      <c r="AM13" s="89"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="88"/>
+      <c r="AD13" s="88"/>
+      <c r="AE13" s="88"/>
+      <c r="AF13" s="88"/>
+      <c r="AG13" s="88"/>
+      <c r="AH13" s="88"/>
+      <c r="AI13" s="88"/>
+      <c r="AJ13" s="88"/>
+      <c r="AK13" s="88"/>
+      <c r="AL13" s="88"/>
+      <c r="AM13" s="88"/>
+    </row>
+    <row r="14" spans="1:39">
       <c r="A14" s="43" t="s">
         <v>144</v>
       </c>
@@ -5194,29 +5440,29 @@
       </c>
       <c r="P14" s="31"/>
       <c r="Q14" s="31"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="90"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="90"/>
-      <c r="AJ14" s="90"/>
-      <c r="AK14" s="90"/>
-      <c r="AL14" s="90"/>
-      <c r="AM14" s="90"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
+      <c r="AE14" s="89"/>
+      <c r="AF14" s="89"/>
+      <c r="AG14" s="89"/>
+      <c r="AH14" s="89"/>
+      <c r="AI14" s="89"/>
+      <c r="AJ14" s="89"/>
+      <c r="AK14" s="89"/>
+      <c r="AL14" s="89"/>
+      <c r="AM14" s="89"/>
+    </row>
+    <row r="15" spans="1:39">
       <c r="A15" s="43" t="s">
         <v>145</v>
       </c>
@@ -5249,15 +5495,15 @@
         <v>1.6</v>
       </c>
       <c r="N15" s="78">
-        <f t="shared" ref="N15:N17" si="1">I15*M15</f>
+        <f>I15*M15</f>
         <v>1.6</v>
       </c>
       <c r="O15" s="78">
-        <f t="shared" ref="O15:O17" si="2">M15*L15</f>
+        <f>M15*L15</f>
         <v>1.6</v>
       </c>
       <c r="P15" s="39" t="str">
-        <f t="shared" ref="P15:P17" si="3">IF($L15=1,"완료", IF($F15*1&gt;$B$3*1,"-",IF($G15*1&lt;$B$3*1,"지연","진행중")))</f>
+        <f>IF($L15=1,"완료",IF($F15*1&gt;$B$3*1,"-",IF($G15*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>완료</v>
       </c>
       <c r="Q15" s="39"/>
@@ -5283,7 +5529,7 @@
       <c r="AL15" s="44"/>
       <c r="AM15" s="44"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39">
       <c r="A16" s="43" t="s">
         <v>146</v>
       </c>
@@ -5316,15 +5562,15 @@
         <v>1.7</v>
       </c>
       <c r="N16" s="78">
-        <f t="shared" si="1"/>
+        <f>I16*M16</f>
         <v>1.7</v>
       </c>
       <c r="O16" s="78">
-        <f t="shared" si="2"/>
+        <f>M16*L16</f>
         <v>1.7</v>
       </c>
       <c r="P16" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($L16=1,"완료",IF($F16*1&gt;$B$3*1,"-",IF($G16*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>완료</v>
       </c>
       <c r="Q16" s="39"/>
@@ -5350,7 +5596,7 @@
       <c r="AL16" s="44"/>
       <c r="AM16" s="44"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39">
       <c r="A17" s="43" t="s">
         <v>138</v>
       </c>
@@ -5383,15 +5629,15 @@
         <v>1.7</v>
       </c>
       <c r="N17" s="78">
-        <f t="shared" si="1"/>
+        <f>I17*M17</f>
         <v>1.7</v>
       </c>
       <c r="O17" s="78">
-        <f t="shared" si="2"/>
+        <f>M17*L17</f>
         <v>1.7</v>
       </c>
       <c r="P17" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f>IF($L17=1,"완료",IF($F17*1&gt;$B$3*1,"-",IF($G17*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>완료</v>
       </c>
       <c r="Q17" s="39"/>
@@ -5417,7 +5663,7 @@
       <c r="AL17" s="44"/>
       <c r="AM17" s="44"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39">
       <c r="A18" s="43" t="s">
         <v>147</v>
       </c>
@@ -5427,11 +5673,11 @@
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="85">
+      <c r="F18" s="84">
         <f>MIN(F19)</f>
         <v>43820</v>
       </c>
-      <c r="G18" s="85">
+      <c r="G18" s="84">
         <f>MAX(G19)</f>
         <v>43826</v>
       </c>
@@ -5454,29 +5700,29 @@
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="89"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S18" s="88"/>
+      <c r="T18" s="88"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="88"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="88"/>
+      <c r="AD18" s="88"/>
+      <c r="AE18" s="88"/>
+      <c r="AF18" s="88"/>
+      <c r="AG18" s="88"/>
+      <c r="AH18" s="88"/>
+      <c r="AI18" s="88"/>
+      <c r="AJ18" s="88"/>
+      <c r="AK18" s="88"/>
+      <c r="AL18" s="88"/>
+      <c r="AM18" s="88"/>
+    </row>
+    <row r="19" spans="1:39">
       <c r="A19" s="43" t="s">
         <v>148</v>
       </c>
@@ -5513,29 +5759,29 @@
       </c>
       <c r="P19" s="31"/>
       <c r="Q19" s="31"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="90"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="90"/>
-      <c r="AE19" s="90"/>
-      <c r="AF19" s="90"/>
-      <c r="AG19" s="90"/>
-      <c r="AH19" s="90"/>
-      <c r="AI19" s="90"/>
-      <c r="AJ19" s="90"/>
-      <c r="AK19" s="90"/>
-      <c r="AL19" s="90"/>
-      <c r="AM19" s="90"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="89"/>
+      <c r="AF19" s="89"/>
+      <c r="AG19" s="89"/>
+      <c r="AH19" s="89"/>
+      <c r="AI19" s="89"/>
+      <c r="AJ19" s="89"/>
+      <c r="AK19" s="89"/>
+      <c r="AL19" s="89"/>
+      <c r="AM19" s="89"/>
+    </row>
+    <row r="20" spans="1:39">
       <c r="A20" s="43" t="s">
         <v>149</v>
       </c>
@@ -5568,15 +5814,15 @@
         <v>2.5</v>
       </c>
       <c r="N20" s="78">
-        <f t="shared" ref="N20:N21" si="4">I20*M20</f>
+        <f>I20*M20</f>
         <v>2.5</v>
       </c>
       <c r="O20" s="78">
-        <f t="shared" ref="O20:O21" si="5">M20*L20</f>
+        <f>M20*L20</f>
         <v>2.5</v>
       </c>
       <c r="P20" s="39" t="str">
-        <f t="shared" ref="P20:P21" si="6">IF($L20=1,"완료", IF($F20*1&gt;$B$3*1,"-",IF($G20*1&lt;$B$3*1,"지연","진행중")))</f>
+        <f>IF($L20=1,"완료",IF($F20*1&gt;$B$3*1,"-",IF($G20*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>완료</v>
       </c>
       <c r="Q20" s="39"/>
@@ -5602,7 +5848,7 @@
       <c r="AL20" s="44"/>
       <c r="AM20" s="44"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39">
       <c r="A21" s="43" t="s">
         <v>150</v>
       </c>
@@ -5635,15 +5881,15 @@
         <v>2.5</v>
       </c>
       <c r="N21" s="78">
-        <f t="shared" si="4"/>
+        <f>I21*M21</f>
         <v>2.5</v>
       </c>
       <c r="O21" s="78">
-        <f t="shared" si="5"/>
+        <f>M21*L21</f>
         <v>1</v>
       </c>
       <c r="P21" s="39" t="str">
-        <f t="shared" si="6"/>
+        <f>IF($L21=1,"완료",IF($F21*1&gt;$B$3*1,"-",IF($G21*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>지연</v>
       </c>
       <c r="Q21" s="39"/>
@@ -5669,7 +5915,7 @@
       <c r="AL21" s="44"/>
       <c r="AM21" s="44"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39">
       <c r="A22" s="43" t="s">
         <v>151</v>
       </c>
@@ -5679,11 +5925,11 @@
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="85">
+      <c r="F22" s="84">
         <f>MIN(F23,F27,F30,F32,F35)</f>
         <v>43806</v>
       </c>
-      <c r="G22" s="85">
+      <c r="G22" s="84">
         <f>MAX(G23,G27,G30,G32,G35)</f>
         <v>43955</v>
       </c>
@@ -5698,37 +5944,37 @@
       </c>
       <c r="N22" s="81">
         <f>SUM(N35,N32,N30,N27,N23)</f>
-        <v>2.6760869565217393</v>
+        <v>2.67608695652174</v>
       </c>
       <c r="O22" s="81">
         <f>SUM(O35,O32,O30,O27,O23)</f>
-        <v>8.4000000000000005E-2</v>
+        <v>0.084</v>
       </c>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="89"/>
-      <c r="AD22" s="89"/>
-      <c r="AE22" s="89"/>
-      <c r="AF22" s="89"/>
-      <c r="AG22" s="89"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="89"/>
-      <c r="AJ22" s="89"/>
-      <c r="AK22" s="89"/>
-      <c r="AL22" s="89"/>
-      <c r="AM22" s="89"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="88"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="88"/>
+      <c r="AD22" s="88"/>
+      <c r="AE22" s="88"/>
+      <c r="AF22" s="88"/>
+      <c r="AG22" s="88"/>
+      <c r="AH22" s="88"/>
+      <c r="AI22" s="88"/>
+      <c r="AJ22" s="88"/>
+      <c r="AK22" s="88"/>
+      <c r="AL22" s="88"/>
+      <c r="AM22" s="88"/>
+    </row>
+    <row r="23" spans="1:39">
       <c r="A23" s="43" t="s">
         <v>152</v>
       </c>
@@ -5753,41 +5999,41 @@
       <c r="L23" s="32"/>
       <c r="M23" s="33">
         <f>SUM(M24:M26)</f>
-        <v>1.9999999999999998</v>
+        <v>2</v>
       </c>
       <c r="N23" s="82">
         <f>SUM(N24:N26)</f>
-        <v>0.17608695652173914</v>
+        <v>0.176086956521739</v>
       </c>
       <c r="O23" s="82">
         <f>SUM(O24:O26)</f>
-        <v>8.4000000000000005E-2</v>
+        <v>0.084</v>
       </c>
       <c r="P23" s="31"/>
       <c r="Q23" s="31"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="90"/>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="90"/>
-      <c r="AB23" s="90"/>
-      <c r="AC23" s="90"/>
-      <c r="AD23" s="90"/>
-      <c r="AE23" s="90"/>
-      <c r="AF23" s="90"/>
-      <c r="AG23" s="90"/>
-      <c r="AH23" s="90"/>
-      <c r="AI23" s="90"/>
-      <c r="AJ23" s="90"/>
-      <c r="AK23" s="90"/>
-      <c r="AL23" s="90"/>
-      <c r="AM23" s="90"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="89"/>
+      <c r="AE23" s="89"/>
+      <c r="AF23" s="89"/>
+      <c r="AG23" s="89"/>
+      <c r="AH23" s="89"/>
+      <c r="AI23" s="89"/>
+      <c r="AJ23" s="89"/>
+      <c r="AK23" s="89"/>
+      <c r="AL23" s="89"/>
+      <c r="AM23" s="89"/>
+    </row>
+    <row r="24" spans="1:39">
       <c r="A24" s="43" t="s">
         <v>153</v>
       </c>
@@ -5809,26 +6055,26 @@
       </c>
       <c r="I24" s="36">
         <f>IF($F24*1&gt;$B$3*1,0,IF($G24*1&lt;$B$3*1,1,NETWORKDAYS($F24,$B$3,기타!$B$2:$B$6)/$H24))</f>
-        <v>0.29347826086956524</v>
+        <v>0.293478260869565</v>
       </c>
       <c r="J24" s="39"/>
       <c r="K24" s="39"/>
       <c r="L24" s="36">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="M24" s="38">
         <v>0.6</v>
       </c>
       <c r="N24" s="78">
-        <f t="shared" ref="N24:N26" si="7">I24*M24</f>
-        <v>0.17608695652173914</v>
+        <f>I24*M24</f>
+        <v>0.176086956521739</v>
       </c>
       <c r="O24" s="78">
-        <f t="shared" ref="O24:O26" si="8">M24*L24</f>
-        <v>8.4000000000000005E-2</v>
+        <f>M24*L24</f>
+        <v>0.084</v>
       </c>
       <c r="P24" s="39" t="str">
-        <f t="shared" ref="P24:P26" si="9">IF($L24=1,"완료", IF($F24*1&gt;$B$3*1,"-",IF($G24*1&lt;$B$3*1,"지연","진행중")))</f>
+        <f>IF($L24=1,"완료",IF($F24*1&gt;$B$3*1,"-",IF($G24*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>진행중</v>
       </c>
       <c r="Q24" s="39"/>
@@ -5854,7 +6100,7 @@
       <c r="AL24" s="44"/>
       <c r="AM24" s="44"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39">
       <c r="A25" s="43" t="s">
         <v>154</v>
       </c>
@@ -5885,15 +6131,15 @@
         <v>0.7</v>
       </c>
       <c r="N25" s="78">
-        <f t="shared" si="7"/>
+        <f>I25*M25</f>
         <v>0</v>
       </c>
       <c r="O25" s="78">
-        <f t="shared" si="8"/>
+        <f>M25*L25</f>
         <v>0</v>
       </c>
       <c r="P25" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($L25=1,"완료",IF($F25*1&gt;$B$3*1,"-",IF($G25*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>진행중</v>
       </c>
       <c r="Q25" s="39"/>
@@ -5919,7 +6165,7 @@
       <c r="AL25" s="44"/>
       <c r="AM25" s="44"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39">
       <c r="A26" s="43" t="s">
         <v>155</v>
       </c>
@@ -5950,15 +6196,15 @@
         <v>0.7</v>
       </c>
       <c r="N26" s="78">
-        <f t="shared" si="7"/>
+        <f>I26*M26</f>
         <v>0</v>
       </c>
       <c r="O26" s="78">
-        <f t="shared" si="8"/>
+        <f>M26*L26</f>
         <v>0</v>
       </c>
       <c r="P26" s="39" t="str">
-        <f t="shared" si="9"/>
+        <f>IF($L26=1,"완료",IF($F26*1&gt;$B$3*1,"-",IF($G26*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>-</v>
       </c>
       <c r="Q26" s="39"/>
@@ -5984,7 +6230,7 @@
       <c r="AL26" s="44"/>
       <c r="AM26" s="44"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39">
       <c r="A27" s="43" t="s">
         <v>156</v>
       </c>
@@ -6021,29 +6267,29 @@
       </c>
       <c r="P27" s="31"/>
       <c r="Q27" s="31"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="90"/>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="90"/>
-      <c r="AB27" s="90"/>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="90"/>
-      <c r="AE27" s="90"/>
-      <c r="AF27" s="90"/>
-      <c r="AG27" s="90"/>
-      <c r="AH27" s="90"/>
-      <c r="AI27" s="90"/>
-      <c r="AJ27" s="90"/>
-      <c r="AK27" s="90"/>
-      <c r="AL27" s="90"/>
-      <c r="AM27" s="90"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="89"/>
+      <c r="AD27" s="89"/>
+      <c r="AE27" s="89"/>
+      <c r="AF27" s="89"/>
+      <c r="AG27" s="89"/>
+      <c r="AH27" s="89"/>
+      <c r="AI27" s="89"/>
+      <c r="AJ27" s="89"/>
+      <c r="AK27" s="89"/>
+      <c r="AL27" s="89"/>
+      <c r="AM27" s="89"/>
+    </row>
+    <row r="28" spans="1:39">
       <c r="A28" s="43" t="s">
         <v>157</v>
       </c>
@@ -6068,11 +6314,11 @@
         <v>1</v>
       </c>
       <c r="N28" s="78">
-        <f t="shared" ref="N28:N29" si="10">I28*M28</f>
+        <f>I28*M28</f>
         <v>0</v>
       </c>
       <c r="O28" s="78">
-        <f t="shared" ref="O28:O29" si="11">M28*L28</f>
+        <f>M28*L28</f>
         <v>0</v>
       </c>
       <c r="P28" s="39"/>
@@ -6099,7 +6345,7 @@
       <c r="AL28" s="44"/>
       <c r="AM28" s="44"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39">
       <c r="A29" s="43" t="s">
         <v>158</v>
       </c>
@@ -6124,11 +6370,11 @@
         <v>1</v>
       </c>
       <c r="N29" s="78">
-        <f t="shared" si="10"/>
+        <f>I29*M29</f>
         <v>0</v>
       </c>
       <c r="O29" s="78">
-        <f t="shared" si="11"/>
+        <f>M29*L29</f>
         <v>0</v>
       </c>
       <c r="P29" s="39"/>
@@ -6155,7 +6401,7 @@
       <c r="AL29" s="44"/>
       <c r="AM29" s="44"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39">
       <c r="A30" s="43" t="s">
         <v>159</v>
       </c>
@@ -6192,29 +6438,29 @@
       </c>
       <c r="P30" s="31"/>
       <c r="Q30" s="31"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="90"/>
-      <c r="U30" s="90"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="90"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="90"/>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="90"/>
-      <c r="AB30" s="90"/>
-      <c r="AC30" s="90"/>
-      <c r="AD30" s="90"/>
-      <c r="AE30" s="90"/>
-      <c r="AF30" s="90"/>
-      <c r="AG30" s="90"/>
-      <c r="AH30" s="90"/>
-      <c r="AI30" s="90"/>
-      <c r="AJ30" s="90"/>
-      <c r="AK30" s="90"/>
-      <c r="AL30" s="90"/>
-      <c r="AM30" s="90"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
+      <c r="AC30" s="89"/>
+      <c r="AD30" s="89"/>
+      <c r="AE30" s="89"/>
+      <c r="AF30" s="89"/>
+      <c r="AG30" s="89"/>
+      <c r="AH30" s="89"/>
+      <c r="AI30" s="89"/>
+      <c r="AJ30" s="89"/>
+      <c r="AK30" s="89"/>
+      <c r="AL30" s="89"/>
+      <c r="AM30" s="89"/>
+    </row>
+    <row r="31" spans="1:39">
       <c r="A31" s="43" t="s">
         <v>160</v>
       </c>
@@ -6270,7 +6516,7 @@
       <c r="AL31" s="44"/>
       <c r="AM31" s="44"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39">
       <c r="A32" s="43" t="s">
         <v>161</v>
       </c>
@@ -6307,29 +6553,29 @@
       </c>
       <c r="P32" s="31"/>
       <c r="Q32" s="31"/>
-      <c r="S32" s="90"/>
-      <c r="T32" s="90"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="90"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="90"/>
-      <c r="Z32" s="90"/>
-      <c r="AA32" s="90"/>
-      <c r="AB32" s="90"/>
-      <c r="AC32" s="90"/>
-      <c r="AD32" s="90"/>
-      <c r="AE32" s="90"/>
-      <c r="AF32" s="90"/>
-      <c r="AG32" s="90"/>
-      <c r="AH32" s="90"/>
-      <c r="AI32" s="90"/>
-      <c r="AJ32" s="90"/>
-      <c r="AK32" s="90"/>
-      <c r="AL32" s="90"/>
-      <c r="AM32" s="90"/>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="89"/>
+      <c r="AC32" s="89"/>
+      <c r="AD32" s="89"/>
+      <c r="AE32" s="89"/>
+      <c r="AF32" s="89"/>
+      <c r="AG32" s="89"/>
+      <c r="AH32" s="89"/>
+      <c r="AI32" s="89"/>
+      <c r="AJ32" s="89"/>
+      <c r="AK32" s="89"/>
+      <c r="AL32" s="89"/>
+      <c r="AM32" s="89"/>
+    </row>
+    <row r="33" spans="1:39">
       <c r="A33" s="43" t="s">
         <v>162</v>
       </c>
@@ -6360,15 +6606,15 @@
         <v>1</v>
       </c>
       <c r="N33" s="78">
-        <f t="shared" ref="N33:N34" si="12">I33*M33</f>
+        <f>I33*M33</f>
         <v>1</v>
       </c>
       <c r="O33" s="78">
-        <f t="shared" ref="O33:O34" si="13">M33*L33</f>
+        <f>M33*L33</f>
         <v>0</v>
       </c>
       <c r="P33" s="39" t="str">
-        <f t="shared" ref="P33:P34" si="14">IF($L33=1,"완료", IF($F33*1&gt;$B$3*1,"-",IF($G33*1&lt;$B$3*1,"지연","진행중")))</f>
+        <f>IF($L33=1,"완료",IF($F33*1&gt;$B$3*1,"-",IF($G33*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>지연</v>
       </c>
       <c r="Q33" s="39"/>
@@ -6394,7 +6640,7 @@
       <c r="AL33" s="44"/>
       <c r="AM33" s="44"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39">
       <c r="A34" s="43" t="s">
         <v>163</v>
       </c>
@@ -6425,15 +6671,15 @@
         <v>1</v>
       </c>
       <c r="N34" s="78">
-        <f t="shared" si="12"/>
+        <f>I34*M34</f>
         <v>1</v>
       </c>
       <c r="O34" s="78">
-        <f t="shared" si="13"/>
+        <f>M34*L34</f>
         <v>0</v>
       </c>
       <c r="P34" s="39" t="str">
-        <f t="shared" si="14"/>
+        <f>IF($L34=1,"완료",IF($F34*1&gt;$B$3*1,"-",IF($G34*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>지연</v>
       </c>
       <c r="Q34" s="39"/>
@@ -6459,7 +6705,7 @@
       <c r="AL34" s="44"/>
       <c r="AM34" s="44"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39">
       <c r="A35" s="43" t="s">
         <v>164</v>
       </c>
@@ -6496,29 +6742,29 @@
       </c>
       <c r="P35" s="31"/>
       <c r="Q35" s="31"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="90"/>
-      <c r="U35" s="90"/>
-      <c r="V35" s="90"/>
-      <c r="W35" s="90"/>
-      <c r="X35" s="90"/>
-      <c r="Y35" s="90"/>
-      <c r="Z35" s="90"/>
-      <c r="AA35" s="90"/>
-      <c r="AB35" s="90"/>
-      <c r="AC35" s="90"/>
-      <c r="AD35" s="90"/>
-      <c r="AE35" s="90"/>
-      <c r="AF35" s="90"/>
-      <c r="AG35" s="90"/>
-      <c r="AH35" s="90"/>
-      <c r="AI35" s="90"/>
-      <c r="AJ35" s="90"/>
-      <c r="AK35" s="90"/>
-      <c r="AL35" s="90"/>
-      <c r="AM35" s="90"/>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S35" s="89"/>
+      <c r="T35" s="89"/>
+      <c r="U35" s="89"/>
+      <c r="V35" s="89"/>
+      <c r="W35" s="89"/>
+      <c r="X35" s="89"/>
+      <c r="Y35" s="89"/>
+      <c r="Z35" s="89"/>
+      <c r="AA35" s="89"/>
+      <c r="AB35" s="89"/>
+      <c r="AC35" s="89"/>
+      <c r="AD35" s="89"/>
+      <c r="AE35" s="89"/>
+      <c r="AF35" s="89"/>
+      <c r="AG35" s="89"/>
+      <c r="AH35" s="89"/>
+      <c r="AI35" s="89"/>
+      <c r="AJ35" s="89"/>
+      <c r="AK35" s="89"/>
+      <c r="AL35" s="89"/>
+      <c r="AM35" s="89"/>
+    </row>
+    <row r="36" spans="1:39">
       <c r="A36" s="43" t="s">
         <v>165</v>
       </c>
@@ -6549,15 +6795,15 @@
         <v>0.5</v>
       </c>
       <c r="N36" s="78">
-        <f t="shared" ref="N36:N39" si="15">I36*M36</f>
+        <f>I36*M36</f>
         <v>0.5</v>
       </c>
       <c r="O36" s="78">
-        <f t="shared" ref="O36:O39" si="16">M36*L36</f>
+        <f>M36*L36</f>
         <v>0</v>
       </c>
       <c r="P36" s="39" t="str">
-        <f t="shared" ref="P36:P39" si="17">IF($L36=1,"완료", IF($F36*1&gt;$B$3*1,"-",IF($G36*1&lt;$B$3*1,"지연","진행중")))</f>
+        <f>IF($L36=1,"완료",IF($F36*1&gt;$B$3*1,"-",IF($G36*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>지연</v>
       </c>
       <c r="Q36" s="39"/>
@@ -6583,7 +6829,7 @@
       <c r="AL36" s="44"/>
       <c r="AM36" s="44"/>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39">
       <c r="A37" s="43" t="s">
         <v>166</v>
       </c>
@@ -6614,15 +6860,15 @@
         <v>0.5</v>
       </c>
       <c r="N37" s="78">
-        <f t="shared" si="15"/>
+        <f>I37*M37</f>
         <v>0</v>
       </c>
       <c r="O37" s="78">
-        <f t="shared" si="16"/>
+        <f>M37*L37</f>
         <v>0</v>
       </c>
       <c r="P37" s="39" t="str">
-        <f t="shared" si="17"/>
+        <f>IF($L37=1,"완료",IF($F37*1&gt;$B$3*1,"-",IF($G37*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>-</v>
       </c>
       <c r="Q37" s="39"/>
@@ -6648,7 +6894,7 @@
       <c r="AL37" s="44"/>
       <c r="AM37" s="44"/>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39">
       <c r="A38" s="43" t="s">
         <v>167</v>
       </c>
@@ -6679,15 +6925,15 @@
         <v>0.5</v>
       </c>
       <c r="N38" s="78">
-        <f t="shared" si="15"/>
+        <f>I38*M38</f>
         <v>0</v>
       </c>
       <c r="O38" s="78">
-        <f t="shared" si="16"/>
+        <f>M38*L38</f>
         <v>0</v>
       </c>
       <c r="P38" s="39" t="str">
-        <f t="shared" si="17"/>
+        <f>IF($L38=1,"완료",IF($F38*1&gt;$B$3*1,"-",IF($G38*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>-</v>
       </c>
       <c r="Q38" s="39"/>
@@ -6713,7 +6959,7 @@
       <c r="AL38" s="44"/>
       <c r="AM38" s="44"/>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39">
       <c r="A39" s="43" t="s">
         <v>168</v>
       </c>
@@ -6744,15 +6990,15 @@
         <v>0.5</v>
       </c>
       <c r="N39" s="78">
-        <f t="shared" si="15"/>
+        <f>I39*M39</f>
         <v>0</v>
       </c>
       <c r="O39" s="78">
-        <f t="shared" si="16"/>
+        <f>M39*L39</f>
         <v>0</v>
       </c>
       <c r="P39" s="39" t="str">
-        <f t="shared" si="17"/>
+        <f>IF($L39=1,"완료",IF($F39*1&gt;$B$3*1,"-",IF($G39*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>-</v>
       </c>
       <c r="Q39" s="39"/>
@@ -6778,7 +7024,7 @@
       <c r="AL39" s="44"/>
       <c r="AM39" s="44"/>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39">
       <c r="A40" s="43" t="s">
         <v>169</v>
       </c>
@@ -6788,11 +7034,11 @@
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
-      <c r="F40" s="85">
+      <c r="F40" s="84">
         <f>MIN(F41,F45)</f>
         <v>43859</v>
       </c>
-      <c r="G40" s="85">
+      <c r="G40" s="84">
         <f>MAX(G41,G45)</f>
         <v>43948</v>
       </c>
@@ -6803,7 +7049,7 @@
       <c r="L40" s="28"/>
       <c r="M40" s="29">
         <f>SUM(M41,M45)</f>
-        <v>7.9999999999999991</v>
+        <v>8</v>
       </c>
       <c r="N40" s="81">
         <f>SUM(N41,N45)</f>
@@ -6815,29 +7061,29 @@
       </c>
       <c r="P40" s="27"/>
       <c r="Q40" s="27"/>
-      <c r="S40" s="89"/>
-      <c r="T40" s="89"/>
-      <c r="U40" s="89"/>
-      <c r="V40" s="89"/>
-      <c r="W40" s="89"/>
-      <c r="X40" s="89"/>
-      <c r="Y40" s="89"/>
-      <c r="Z40" s="89"/>
-      <c r="AA40" s="89"/>
-      <c r="AB40" s="89"/>
-      <c r="AC40" s="89"/>
-      <c r="AD40" s="89"/>
-      <c r="AE40" s="89"/>
-      <c r="AF40" s="89"/>
-      <c r="AG40" s="89"/>
-      <c r="AH40" s="89"/>
-      <c r="AI40" s="89"/>
-      <c r="AJ40" s="89"/>
-      <c r="AK40" s="89"/>
-      <c r="AL40" s="89"/>
-      <c r="AM40" s="89"/>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S40" s="88"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88"/>
+      <c r="V40" s="88"/>
+      <c r="W40" s="88"/>
+      <c r="X40" s="88"/>
+      <c r="Y40" s="88"/>
+      <c r="Z40" s="88"/>
+      <c r="AA40" s="88"/>
+      <c r="AB40" s="88"/>
+      <c r="AC40" s="88"/>
+      <c r="AD40" s="88"/>
+      <c r="AE40" s="88"/>
+      <c r="AF40" s="88"/>
+      <c r="AG40" s="88"/>
+      <c r="AH40" s="88"/>
+      <c r="AI40" s="88"/>
+      <c r="AJ40" s="88"/>
+      <c r="AK40" s="88"/>
+      <c r="AL40" s="88"/>
+      <c r="AM40" s="88"/>
+    </row>
+    <row r="41" spans="1:39">
       <c r="A41" s="43" t="s">
         <v>170</v>
       </c>
@@ -6862,7 +7108,7 @@
       <c r="L41" s="32"/>
       <c r="M41" s="33">
         <f>SUM(M42:M44)</f>
-        <v>3.9999999999999996</v>
+        <v>4</v>
       </c>
       <c r="N41" s="82">
         <f>SUM(N42:N44)</f>
@@ -6874,29 +7120,29 @@
       </c>
       <c r="P41" s="31"/>
       <c r="Q41" s="31"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="90"/>
-      <c r="U41" s="90"/>
-      <c r="V41" s="90"/>
-      <c r="W41" s="90"/>
-      <c r="X41" s="90"/>
-      <c r="Y41" s="90"/>
-      <c r="Z41" s="90"/>
-      <c r="AA41" s="90"/>
-      <c r="AB41" s="90"/>
-      <c r="AC41" s="90"/>
-      <c r="AD41" s="90"/>
-      <c r="AE41" s="90"/>
-      <c r="AF41" s="90"/>
-      <c r="AG41" s="90"/>
-      <c r="AH41" s="90"/>
-      <c r="AI41" s="90"/>
-      <c r="AJ41" s="90"/>
-      <c r="AK41" s="90"/>
-      <c r="AL41" s="90"/>
-      <c r="AM41" s="90"/>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S41" s="89"/>
+      <c r="T41" s="89"/>
+      <c r="U41" s="89"/>
+      <c r="V41" s="89"/>
+      <c r="W41" s="89"/>
+      <c r="X41" s="89"/>
+      <c r="Y41" s="89"/>
+      <c r="Z41" s="89"/>
+      <c r="AA41" s="89"/>
+      <c r="AB41" s="89"/>
+      <c r="AC41" s="89"/>
+      <c r="AD41" s="89"/>
+      <c r="AE41" s="89"/>
+      <c r="AF41" s="89"/>
+      <c r="AG41" s="89"/>
+      <c r="AH41" s="89"/>
+      <c r="AI41" s="89"/>
+      <c r="AJ41" s="89"/>
+      <c r="AK41" s="89"/>
+      <c r="AL41" s="89"/>
+      <c r="AM41" s="89"/>
+    </row>
+    <row r="42" spans="1:39">
       <c r="A42" s="43" t="s">
         <v>171</v>
       </c>
@@ -6927,15 +7173,15 @@
         <v>1.2</v>
       </c>
       <c r="N42" s="78">
-        <f t="shared" ref="N42:N44" si="18">I42*M42</f>
+        <f>I42*M42</f>
         <v>1.2</v>
       </c>
       <c r="O42" s="78">
-        <f t="shared" ref="O42:O44" si="19">M42*L42</f>
+        <f>M42*L42</f>
         <v>0</v>
       </c>
       <c r="P42" s="39" t="str">
-        <f t="shared" ref="P42:P44" si="20">IF($L42=1,"완료", IF($F42*1&gt;$B$3*1,"-",IF($G42*1&lt;$B$3*1,"지연","진행중")))</f>
+        <f>IF($L42=1,"완료",IF($F42*1&gt;$B$3*1,"-",IF($G42*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>진행중</v>
       </c>
       <c r="Q42" s="39"/>
@@ -6961,7 +7207,7 @@
       <c r="AL42" s="44"/>
       <c r="AM42" s="44"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39">
       <c r="A43" s="43" t="s">
         <v>172</v>
       </c>
@@ -6992,15 +7238,15 @@
         <v>1.4</v>
       </c>
       <c r="N43" s="78">
-        <f t="shared" si="18"/>
+        <f>I43*M43</f>
         <v>0</v>
       </c>
       <c r="O43" s="78">
-        <f t="shared" si="19"/>
+        <f>M43*L43</f>
         <v>0</v>
       </c>
       <c r="P43" s="39" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($L43=1,"완료",IF($F43*1&gt;$B$3*1,"-",IF($G43*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>-</v>
       </c>
       <c r="Q43" s="39"/>
@@ -7026,7 +7272,7 @@
       <c r="AL43" s="44"/>
       <c r="AM43" s="44"/>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39">
       <c r="A44" s="43" t="s">
         <v>173</v>
       </c>
@@ -7057,15 +7303,15 @@
         <v>1.4</v>
       </c>
       <c r="N44" s="78">
-        <f t="shared" si="18"/>
+        <f>I44*M44</f>
         <v>0</v>
       </c>
       <c r="O44" s="78">
-        <f t="shared" si="19"/>
+        <f>M44*L44</f>
         <v>0</v>
       </c>
       <c r="P44" s="39" t="str">
-        <f t="shared" si="20"/>
+        <f>IF($L44=1,"완료",IF($F44*1&gt;$B$3*1,"-",IF($G44*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>-</v>
       </c>
       <c r="Q44" s="39"/>
@@ -7091,7 +7337,7 @@
       <c r="AL44" s="44"/>
       <c r="AM44" s="44"/>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39">
       <c r="A45" s="43" t="s">
         <v>174</v>
       </c>
@@ -7116,7 +7362,7 @@
       <c r="L45" s="32"/>
       <c r="M45" s="33">
         <f>SUM(M46:M48)</f>
-        <v>3.9999999999999996</v>
+        <v>4</v>
       </c>
       <c r="N45" s="82">
         <f>SUM(N46:N48)</f>
@@ -7128,29 +7374,29 @@
       </c>
       <c r="P45" s="31"/>
       <c r="Q45" s="31"/>
-      <c r="S45" s="90"/>
-      <c r="T45" s="90"/>
-      <c r="U45" s="90"/>
-      <c r="V45" s="90"/>
-      <c r="W45" s="90"/>
-      <c r="X45" s="90"/>
-      <c r="Y45" s="90"/>
-      <c r="Z45" s="90"/>
-      <c r="AA45" s="90"/>
-      <c r="AB45" s="90"/>
-      <c r="AC45" s="90"/>
-      <c r="AD45" s="90"/>
-      <c r="AE45" s="90"/>
-      <c r="AF45" s="90"/>
-      <c r="AG45" s="90"/>
-      <c r="AH45" s="90"/>
-      <c r="AI45" s="90"/>
-      <c r="AJ45" s="90"/>
-      <c r="AK45" s="90"/>
-      <c r="AL45" s="90"/>
-      <c r="AM45" s="90"/>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S45" s="89"/>
+      <c r="T45" s="89"/>
+      <c r="U45" s="89"/>
+      <c r="V45" s="89"/>
+      <c r="W45" s="89"/>
+      <c r="X45" s="89"/>
+      <c r="Y45" s="89"/>
+      <c r="Z45" s="89"/>
+      <c r="AA45" s="89"/>
+      <c r="AB45" s="89"/>
+      <c r="AC45" s="89"/>
+      <c r="AD45" s="89"/>
+      <c r="AE45" s="89"/>
+      <c r="AF45" s="89"/>
+      <c r="AG45" s="89"/>
+      <c r="AH45" s="89"/>
+      <c r="AI45" s="89"/>
+      <c r="AJ45" s="89"/>
+      <c r="AK45" s="89"/>
+      <c r="AL45" s="89"/>
+      <c r="AM45" s="89"/>
+    </row>
+    <row r="46" spans="1:39">
       <c r="A46" s="43" t="s">
         <v>175</v>
       </c>
@@ -7181,15 +7427,15 @@
         <v>1.2</v>
       </c>
       <c r="N46" s="78">
-        <f t="shared" ref="N46:N48" si="21">I46*M46</f>
+        <f>I46*M46</f>
         <v>0</v>
       </c>
       <c r="O46" s="78">
-        <f t="shared" ref="O46:O48" si="22">M46*L46</f>
+        <f>M46*L46</f>
         <v>0</v>
       </c>
       <c r="P46" s="39" t="str">
-        <f t="shared" ref="P46:P48" si="23">IF($L46=1,"완료", IF($F46*1&gt;$B$3*1,"-",IF($G46*1&lt;$B$3*1,"지연","진행중")))</f>
+        <f>IF($L46=1,"완료",IF($F46*1&gt;$B$3*1,"-",IF($G46*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>-</v>
       </c>
       <c r="Q46" s="39"/>
@@ -7215,7 +7461,7 @@
       <c r="AL46" s="44"/>
       <c r="AM46" s="44"/>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39">
       <c r="A47" s="43" t="s">
         <v>176</v>
       </c>
@@ -7246,15 +7492,15 @@
         <v>1.4</v>
       </c>
       <c r="N47" s="78">
-        <f t="shared" si="21"/>
+        <f>I47*M47</f>
         <v>0</v>
       </c>
       <c r="O47" s="78">
-        <f t="shared" si="22"/>
+        <f>M47*L47</f>
         <v>0</v>
       </c>
       <c r="P47" s="39" t="str">
-        <f t="shared" si="23"/>
+        <f>IF($L47=1,"완료",IF($F47*1&gt;$B$3*1,"-",IF($G47*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>-</v>
       </c>
       <c r="Q47" s="39"/>
@@ -7280,7 +7526,7 @@
       <c r="AL47" s="44"/>
       <c r="AM47" s="44"/>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39">
       <c r="A48" s="43" t="s">
         <v>177</v>
       </c>
@@ -7311,15 +7557,15 @@
         <v>1.4</v>
       </c>
       <c r="N48" s="78">
-        <f t="shared" si="21"/>
+        <f>I48*M48</f>
         <v>0</v>
       </c>
       <c r="O48" s="78">
-        <f t="shared" si="22"/>
+        <f>M48*L48</f>
         <v>0</v>
       </c>
       <c r="P48" s="39" t="str">
-        <f t="shared" si="23"/>
+        <f>IF($L48=1,"완료",IF($F48*1&gt;$B$3*1,"-",IF($G48*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>-</v>
       </c>
       <c r="Q48" s="39"/>
@@ -7345,7 +7591,7 @@
       <c r="AL48" s="44"/>
       <c r="AM48" s="44"/>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39">
       <c r="A49" s="43" t="s">
         <v>178</v>
       </c>
@@ -7355,11 +7601,11 @@
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
-      <c r="F49" s="85">
+      <c r="F49" s="84">
         <f>MIN(F50)</f>
         <v>43951</v>
       </c>
-      <c r="G49" s="85">
+      <c r="G49" s="84">
         <f>MAX(G50)</f>
         <v>43955</v>
       </c>
@@ -7382,29 +7628,29 @@
       </c>
       <c r="P49" s="27"/>
       <c r="Q49" s="27"/>
-      <c r="S49" s="89"/>
-      <c r="T49" s="89"/>
-      <c r="U49" s="89"/>
-      <c r="V49" s="89"/>
-      <c r="W49" s="89"/>
-      <c r="X49" s="89"/>
-      <c r="Y49" s="89"/>
-      <c r="Z49" s="89"/>
-      <c r="AA49" s="89"/>
-      <c r="AB49" s="89"/>
-      <c r="AC49" s="89"/>
-      <c r="AD49" s="89"/>
-      <c r="AE49" s="89"/>
-      <c r="AF49" s="89"/>
-      <c r="AG49" s="89"/>
-      <c r="AH49" s="89"/>
-      <c r="AI49" s="89"/>
-      <c r="AJ49" s="89"/>
-      <c r="AK49" s="89"/>
-      <c r="AL49" s="89"/>
-      <c r="AM49" s="89"/>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S49" s="88"/>
+      <c r="T49" s="88"/>
+      <c r="U49" s="88"/>
+      <c r="V49" s="88"/>
+      <c r="W49" s="88"/>
+      <c r="X49" s="88"/>
+      <c r="Y49" s="88"/>
+      <c r="Z49" s="88"/>
+      <c r="AA49" s="88"/>
+      <c r="AB49" s="88"/>
+      <c r="AC49" s="88"/>
+      <c r="AD49" s="88"/>
+      <c r="AE49" s="88"/>
+      <c r="AF49" s="88"/>
+      <c r="AG49" s="88"/>
+      <c r="AH49" s="88"/>
+      <c r="AI49" s="88"/>
+      <c r="AJ49" s="88"/>
+      <c r="AK49" s="88"/>
+      <c r="AL49" s="88"/>
+      <c r="AM49" s="88"/>
+    </row>
+    <row r="50" spans="1:39">
       <c r="A50" s="43" t="s">
         <v>179</v>
       </c>
@@ -7441,29 +7687,29 @@
       </c>
       <c r="P50" s="31"/>
       <c r="Q50" s="31"/>
-      <c r="S50" s="90"/>
-      <c r="T50" s="90"/>
-      <c r="U50" s="90"/>
-      <c r="V50" s="90"/>
-      <c r="W50" s="90"/>
-      <c r="X50" s="90"/>
-      <c r="Y50" s="90"/>
-      <c r="Z50" s="90"/>
-      <c r="AA50" s="90"/>
-      <c r="AB50" s="90"/>
-      <c r="AC50" s="90"/>
-      <c r="AD50" s="90"/>
-      <c r="AE50" s="90"/>
-      <c r="AF50" s="90"/>
-      <c r="AG50" s="90"/>
-      <c r="AH50" s="90"/>
-      <c r="AI50" s="90"/>
-      <c r="AJ50" s="90"/>
-      <c r="AK50" s="90"/>
-      <c r="AL50" s="90"/>
-      <c r="AM50" s="90"/>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S50" s="89"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
+      <c r="V50" s="89"/>
+      <c r="W50" s="89"/>
+      <c r="X50" s="89"/>
+      <c r="Y50" s="89"/>
+      <c r="Z50" s="89"/>
+      <c r="AA50" s="89"/>
+      <c r="AB50" s="89"/>
+      <c r="AC50" s="89"/>
+      <c r="AD50" s="89"/>
+      <c r="AE50" s="89"/>
+      <c r="AF50" s="89"/>
+      <c r="AG50" s="89"/>
+      <c r="AH50" s="89"/>
+      <c r="AI50" s="89"/>
+      <c r="AJ50" s="89"/>
+      <c r="AK50" s="89"/>
+      <c r="AL50" s="89"/>
+      <c r="AM50" s="89"/>
+    </row>
+    <row r="51" spans="1:39">
       <c r="A51" s="43" t="s">
         <v>180</v>
       </c>
@@ -7494,15 +7740,15 @@
         <v>2.5</v>
       </c>
       <c r="N51" s="78">
-        <f t="shared" ref="N51:N52" si="24">I51*M51</f>
+        <f>I51*M51</f>
         <v>0</v>
       </c>
       <c r="O51" s="78">
-        <f t="shared" ref="O51:O52" si="25">M51*L51</f>
+        <f>M51*L51</f>
         <v>0</v>
       </c>
       <c r="P51" s="39" t="str">
-        <f t="shared" ref="P51:P52" si="26">IF($L51=1,"완료", IF($F51*1&gt;$B$3*1,"-",IF($G51*1&lt;$B$3*1,"지연","진행중")))</f>
+        <f>IF($L51=1,"완료",IF($F51*1&gt;$B$3*1,"-",IF($G51*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>-</v>
       </c>
       <c r="Q51" s="39"/>
@@ -7528,7 +7774,7 @@
       <c r="AL51" s="44"/>
       <c r="AM51" s="44"/>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39">
       <c r="A52" s="43" t="s">
         <v>181</v>
       </c>
@@ -7559,15 +7805,15 @@
         <v>2.5</v>
       </c>
       <c r="N52" s="78">
-        <f t="shared" si="24"/>
+        <f>I52*M52</f>
         <v>0</v>
       </c>
       <c r="O52" s="78">
-        <f t="shared" si="25"/>
+        <f>M52*L52</f>
         <v>0</v>
       </c>
       <c r="P52" s="39" t="str">
-        <f t="shared" si="26"/>
+        <f>IF($L52=1,"완료",IF($F52*1&gt;$B$3*1,"-",IF($G52*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>-</v>
       </c>
       <c r="Q52" s="39"/>
@@ -7593,7 +7839,7 @@
       <c r="AL52" s="44"/>
       <c r="AM52" s="44"/>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39">
       <c r="A53" s="43" t="s">
         <v>182</v>
       </c>
@@ -7603,11 +7849,11 @@
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
-      <c r="F53" s="85">
+      <c r="F53" s="84">
         <f>MIN(F54)</f>
         <v>43951</v>
       </c>
-      <c r="G53" s="85">
+      <c r="G53" s="84">
         <f>MAX(G54)</f>
         <v>43955</v>
       </c>
@@ -7630,29 +7876,29 @@
       </c>
       <c r="P53" s="27"/>
       <c r="Q53" s="27"/>
-      <c r="S53" s="89"/>
-      <c r="T53" s="89"/>
-      <c r="U53" s="89"/>
-      <c r="V53" s="89"/>
-      <c r="W53" s="89"/>
-      <c r="X53" s="89"/>
-      <c r="Y53" s="89"/>
-      <c r="Z53" s="89"/>
-      <c r="AA53" s="89"/>
-      <c r="AB53" s="89"/>
-      <c r="AC53" s="89"/>
-      <c r="AD53" s="89"/>
-      <c r="AE53" s="89"/>
-      <c r="AF53" s="89"/>
-      <c r="AG53" s="89"/>
-      <c r="AH53" s="89"/>
-      <c r="AI53" s="89"/>
-      <c r="AJ53" s="89"/>
-      <c r="AK53" s="89"/>
-      <c r="AL53" s="89"/>
-      <c r="AM53" s="89"/>
-    </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S53" s="88"/>
+      <c r="T53" s="88"/>
+      <c r="U53" s="88"/>
+      <c r="V53" s="88"/>
+      <c r="W53" s="88"/>
+      <c r="X53" s="88"/>
+      <c r="Y53" s="88"/>
+      <c r="Z53" s="88"/>
+      <c r="AA53" s="88"/>
+      <c r="AB53" s="88"/>
+      <c r="AC53" s="88"/>
+      <c r="AD53" s="88"/>
+      <c r="AE53" s="88"/>
+      <c r="AF53" s="88"/>
+      <c r="AG53" s="88"/>
+      <c r="AH53" s="88"/>
+      <c r="AI53" s="88"/>
+      <c r="AJ53" s="88"/>
+      <c r="AK53" s="88"/>
+      <c r="AL53" s="88"/>
+      <c r="AM53" s="88"/>
+    </row>
+    <row r="54" spans="1:39">
       <c r="A54" s="43" t="s">
         <v>235</v>
       </c>
@@ -7689,29 +7935,29 @@
       </c>
       <c r="P54" s="31"/>
       <c r="Q54" s="31"/>
-      <c r="S54" s="90"/>
-      <c r="T54" s="90"/>
-      <c r="U54" s="90"/>
-      <c r="V54" s="90"/>
-      <c r="W54" s="90"/>
-      <c r="X54" s="90"/>
-      <c r="Y54" s="90"/>
-      <c r="Z54" s="90"/>
-      <c r="AA54" s="90"/>
-      <c r="AB54" s="90"/>
-      <c r="AC54" s="90"/>
-      <c r="AD54" s="90"/>
-      <c r="AE54" s="90"/>
-      <c r="AF54" s="90"/>
-      <c r="AG54" s="90"/>
-      <c r="AH54" s="90"/>
-      <c r="AI54" s="90"/>
-      <c r="AJ54" s="90"/>
-      <c r="AK54" s="90"/>
-      <c r="AL54" s="90"/>
-      <c r="AM54" s="90"/>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S54" s="89"/>
+      <c r="T54" s="89"/>
+      <c r="U54" s="89"/>
+      <c r="V54" s="89"/>
+      <c r="W54" s="89"/>
+      <c r="X54" s="89"/>
+      <c r="Y54" s="89"/>
+      <c r="Z54" s="89"/>
+      <c r="AA54" s="89"/>
+      <c r="AB54" s="89"/>
+      <c r="AC54" s="89"/>
+      <c r="AD54" s="89"/>
+      <c r="AE54" s="89"/>
+      <c r="AF54" s="89"/>
+      <c r="AG54" s="89"/>
+      <c r="AH54" s="89"/>
+      <c r="AI54" s="89"/>
+      <c r="AJ54" s="89"/>
+      <c r="AK54" s="89"/>
+      <c r="AL54" s="89"/>
+      <c r="AM54" s="89"/>
+    </row>
+    <row r="55" spans="1:39">
       <c r="A55" s="43" t="s">
         <v>183</v>
       </c>
@@ -7750,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="39" t="str">
-        <f t="shared" ref="P55" si="27">IF($L55=1,"완료", IF($F55*1&gt;$B$3*1,"-",IF($G55*1&lt;$B$3*1,"지연","진행중")))</f>
+        <f>IF($L55=1,"완료",IF($F55*1&gt;$B$3*1,"-",IF($G55*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>-</v>
       </c>
       <c r="Q55" s="39"/>
@@ -7776,7 +8022,7 @@
       <c r="AL55" s="44"/>
       <c r="AM55" s="44"/>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39">
       <c r="A56" s="43"/>
       <c r="B56" s="45" t="s">
         <v>41</v>
@@ -7784,11 +8030,11 @@
       <c r="C56" s="45"/>
       <c r="D56" s="45"/>
       <c r="E56" s="45"/>
-      <c r="F56" s="86">
+      <c r="F56" s="85">
         <f>MIN(F57)</f>
         <v>43817</v>
       </c>
-      <c r="G56" s="86">
+      <c r="G56" s="85">
         <f>MAX(G57)</f>
         <v>43955</v>
       </c>
@@ -7811,29 +8057,29 @@
       </c>
       <c r="P56" s="46"/>
       <c r="Q56" s="46"/>
-      <c r="S56" s="87"/>
-      <c r="T56" s="87"/>
-      <c r="U56" s="87"/>
-      <c r="V56" s="87"/>
-      <c r="W56" s="87"/>
-      <c r="X56" s="87"/>
-      <c r="Y56" s="87"/>
-      <c r="Z56" s="87"/>
-      <c r="AA56" s="87"/>
-      <c r="AB56" s="87"/>
-      <c r="AC56" s="87"/>
-      <c r="AD56" s="87"/>
-      <c r="AE56" s="87"/>
-      <c r="AF56" s="87"/>
-      <c r="AG56" s="87"/>
-      <c r="AH56" s="87"/>
-      <c r="AI56" s="87"/>
-      <c r="AJ56" s="87"/>
-      <c r="AK56" s="87"/>
-      <c r="AL56" s="87"/>
-      <c r="AM56" s="87"/>
-    </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S56" s="86"/>
+      <c r="T56" s="86"/>
+      <c r="U56" s="86"/>
+      <c r="V56" s="86"/>
+      <c r="W56" s="86"/>
+      <c r="X56" s="86"/>
+      <c r="Y56" s="86"/>
+      <c r="Z56" s="86"/>
+      <c r="AA56" s="86"/>
+      <c r="AB56" s="86"/>
+      <c r="AC56" s="86"/>
+      <c r="AD56" s="86"/>
+      <c r="AE56" s="86"/>
+      <c r="AF56" s="86"/>
+      <c r="AG56" s="86"/>
+      <c r="AH56" s="86"/>
+      <c r="AI56" s="86"/>
+      <c r="AJ56" s="86"/>
+      <c r="AK56" s="86"/>
+      <c r="AL56" s="86"/>
+      <c r="AM56" s="86"/>
+    </row>
+    <row r="57" spans="1:39">
       <c r="A57" s="43"/>
       <c r="B57" s="20"/>
       <c r="C57" s="17" t="s">
@@ -7841,11 +8087,11 @@
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
-      <c r="F57" s="85">
+      <c r="F57" s="84">
         <f>MIN(F58,F60,F68,F74,F79,F82)</f>
         <v>43817</v>
       </c>
-      <c r="G57" s="85">
+      <c r="G57" s="84">
         <f>MAX(G58,G60,G68,G74,G79,G82)</f>
         <v>43955</v>
       </c>
@@ -7868,29 +8114,29 @@
       </c>
       <c r="P57" s="27"/>
       <c r="Q57" s="27"/>
-      <c r="S57" s="89"/>
-      <c r="T57" s="89"/>
-      <c r="U57" s="89"/>
-      <c r="V57" s="89"/>
-      <c r="W57" s="89"/>
-      <c r="X57" s="89"/>
-      <c r="Y57" s="89"/>
-      <c r="Z57" s="89"/>
-      <c r="AA57" s="89"/>
-      <c r="AB57" s="89"/>
-      <c r="AC57" s="89"/>
-      <c r="AD57" s="89"/>
-      <c r="AE57" s="89"/>
-      <c r="AF57" s="89"/>
-      <c r="AG57" s="89"/>
-      <c r="AH57" s="89"/>
-      <c r="AI57" s="89"/>
-      <c r="AJ57" s="89"/>
-      <c r="AK57" s="89"/>
-      <c r="AL57" s="89"/>
-      <c r="AM57" s="89"/>
-    </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S57" s="88"/>
+      <c r="T57" s="88"/>
+      <c r="U57" s="88"/>
+      <c r="V57" s="88"/>
+      <c r="W57" s="88"/>
+      <c r="X57" s="88"/>
+      <c r="Y57" s="88"/>
+      <c r="Z57" s="88"/>
+      <c r="AA57" s="88"/>
+      <c r="AB57" s="88"/>
+      <c r="AC57" s="88"/>
+      <c r="AD57" s="88"/>
+      <c r="AE57" s="88"/>
+      <c r="AF57" s="88"/>
+      <c r="AG57" s="88"/>
+      <c r="AH57" s="88"/>
+      <c r="AI57" s="88"/>
+      <c r="AJ57" s="88"/>
+      <c r="AK57" s="88"/>
+      <c r="AL57" s="88"/>
+      <c r="AM57" s="88"/>
+    </row>
+    <row r="58" spans="1:39">
       <c r="A58" s="43"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -7925,29 +8171,29 @@
       </c>
       <c r="P58" s="31"/>
       <c r="Q58" s="31"/>
-      <c r="S58" s="90"/>
-      <c r="T58" s="90"/>
-      <c r="U58" s="90"/>
-      <c r="V58" s="90"/>
-      <c r="W58" s="90"/>
-      <c r="X58" s="90"/>
-      <c r="Y58" s="90"/>
-      <c r="Z58" s="90"/>
-      <c r="AA58" s="90"/>
-      <c r="AB58" s="90"/>
-      <c r="AC58" s="90"/>
-      <c r="AD58" s="90"/>
-      <c r="AE58" s="90"/>
-      <c r="AF58" s="90"/>
-      <c r="AG58" s="90"/>
-      <c r="AH58" s="90"/>
-      <c r="AI58" s="90"/>
-      <c r="AJ58" s="90"/>
-      <c r="AK58" s="90"/>
-      <c r="AL58" s="90"/>
-      <c r="AM58" s="90"/>
-    </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S58" s="89"/>
+      <c r="T58" s="89"/>
+      <c r="U58" s="89"/>
+      <c r="V58" s="89"/>
+      <c r="W58" s="89"/>
+      <c r="X58" s="89"/>
+      <c r="Y58" s="89"/>
+      <c r="Z58" s="89"/>
+      <c r="AA58" s="89"/>
+      <c r="AB58" s="89"/>
+      <c r="AC58" s="89"/>
+      <c r="AD58" s="89"/>
+      <c r="AE58" s="89"/>
+      <c r="AF58" s="89"/>
+      <c r="AG58" s="89"/>
+      <c r="AH58" s="89"/>
+      <c r="AI58" s="89"/>
+      <c r="AJ58" s="89"/>
+      <c r="AK58" s="89"/>
+      <c r="AL58" s="89"/>
+      <c r="AM58" s="89"/>
+    </row>
+    <row r="59" spans="1:39">
       <c r="A59" s="43"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -7986,7 +8232,7 @@
         <v>2</v>
       </c>
       <c r="P59" s="39" t="str">
-        <f t="shared" ref="P59" si="28">IF($L59=1,"완료", IF($F59*1&gt;$B$3*1,"-",IF($G59*1&lt;$B$3*1,"지연","진행중")))</f>
+        <f>IF($L59=1,"완료",IF($F59*1&gt;$B$3*1,"-",IF($G59*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>지연</v>
       </c>
       <c r="Q59" s="39"/>
@@ -8012,7 +8258,7 @@
       <c r="AL59" s="44"/>
       <c r="AM59" s="44"/>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39">
       <c r="A60" s="43"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -8047,29 +8293,29 @@
       </c>
       <c r="P60" s="31"/>
       <c r="Q60" s="31"/>
-      <c r="S60" s="90"/>
-      <c r="T60" s="90"/>
-      <c r="U60" s="90"/>
-      <c r="V60" s="90"/>
-      <c r="W60" s="90"/>
-      <c r="X60" s="90"/>
-      <c r="Y60" s="90"/>
-      <c r="Z60" s="90"/>
-      <c r="AA60" s="90"/>
-      <c r="AB60" s="90"/>
-      <c r="AC60" s="90"/>
-      <c r="AD60" s="90"/>
-      <c r="AE60" s="90"/>
-      <c r="AF60" s="90"/>
-      <c r="AG60" s="90"/>
-      <c r="AH60" s="90"/>
-      <c r="AI60" s="90"/>
-      <c r="AJ60" s="90"/>
-      <c r="AK60" s="90"/>
-      <c r="AL60" s="90"/>
-      <c r="AM60" s="90"/>
-    </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S60" s="89"/>
+      <c r="T60" s="89"/>
+      <c r="U60" s="89"/>
+      <c r="V60" s="89"/>
+      <c r="W60" s="89"/>
+      <c r="X60" s="89"/>
+      <c r="Y60" s="89"/>
+      <c r="Z60" s="89"/>
+      <c r="AA60" s="89"/>
+      <c r="AB60" s="89"/>
+      <c r="AC60" s="89"/>
+      <c r="AD60" s="89"/>
+      <c r="AE60" s="89"/>
+      <c r="AF60" s="89"/>
+      <c r="AG60" s="89"/>
+      <c r="AH60" s="89"/>
+      <c r="AI60" s="89"/>
+      <c r="AJ60" s="89"/>
+      <c r="AK60" s="89"/>
+      <c r="AL60" s="89"/>
+      <c r="AM60" s="89"/>
+    </row>
+    <row r="61" spans="1:39">
       <c r="A61" s="43"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -8100,15 +8346,15 @@
         <v>2</v>
       </c>
       <c r="N61" s="78">
-        <f t="shared" ref="N61:N81" si="29">I61*M61</f>
+        <f>I61*M61</f>
         <v>2</v>
       </c>
       <c r="O61" s="78">
-        <f t="shared" ref="O61:O67" si="30">M61*L61</f>
+        <f>M61*L61</f>
         <v>0.4</v>
       </c>
       <c r="P61" s="39" t="str">
-        <f t="shared" ref="P61:P67" si="31">IF($L61=1,"완료", IF($F61*1&gt;$B$3*1,"-",IF($G61*1&lt;$B$3*1,"지연","진행중")))</f>
+        <f>IF($L61=1,"완료",IF($F61*1&gt;$B$3*1,"-",IF($G61*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>지연</v>
       </c>
       <c r="Q61" s="39"/>
@@ -8134,7 +8380,7 @@
       <c r="AL61" s="44"/>
       <c r="AM61" s="44"/>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39">
       <c r="A62" s="43"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -8163,15 +8409,15 @@
         <v>2</v>
       </c>
       <c r="N62" s="78">
-        <f t="shared" si="29"/>
+        <f>I62*M62</f>
         <v>2</v>
       </c>
       <c r="O62" s="78">
-        <f t="shared" si="30"/>
+        <f>M62*L62</f>
         <v>0</v>
       </c>
       <c r="P62" s="39" t="str">
-        <f t="shared" si="31"/>
+        <f>IF($L62=1,"완료",IF($F62*1&gt;$B$3*1,"-",IF($G62*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>지연</v>
       </c>
       <c r="Q62" s="39"/>
@@ -8197,7 +8443,7 @@
       <c r="AL62" s="44"/>
       <c r="AM62" s="44"/>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39">
       <c r="A63" s="43"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -8226,15 +8472,15 @@
         <v>2</v>
       </c>
       <c r="N63" s="78">
-        <f t="shared" si="29"/>
+        <f>I63*M63</f>
         <v>2</v>
       </c>
       <c r="O63" s="78">
-        <f t="shared" si="30"/>
+        <f>M63*L63</f>
         <v>0</v>
       </c>
       <c r="P63" s="39" t="str">
-        <f t="shared" si="31"/>
+        <f>IF($L63=1,"완료",IF($F63*1&gt;$B$3*1,"-",IF($G63*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>지연</v>
       </c>
       <c r="Q63" s="39"/>
@@ -8260,7 +8506,7 @@
       <c r="AL63" s="44"/>
       <c r="AM63" s="44"/>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39">
       <c r="A64" s="43"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
@@ -8291,15 +8537,15 @@
         <v>2</v>
       </c>
       <c r="N64" s="78">
-        <f t="shared" si="29"/>
+        <f>I64*M64</f>
         <v>2</v>
       </c>
       <c r="O64" s="78">
-        <f t="shared" si="30"/>
+        <f>M64*L64</f>
         <v>0.4</v>
       </c>
       <c r="P64" s="39" t="str">
-        <f t="shared" si="31"/>
+        <f>IF($L64=1,"완료",IF($F64*1&gt;$B$3*1,"-",IF($G64*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>지연</v>
       </c>
       <c r="Q64" s="39"/>
@@ -8325,7 +8571,7 @@
       <c r="AL64" s="44"/>
       <c r="AM64" s="44"/>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39">
       <c r="A65" s="43"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -8354,15 +8600,15 @@
         <v>2</v>
       </c>
       <c r="N65" s="78">
-        <f t="shared" si="29"/>
+        <f>I65*M65</f>
         <v>2</v>
       </c>
       <c r="O65" s="78">
-        <f t="shared" si="30"/>
+        <f>M65*L65</f>
         <v>0</v>
       </c>
       <c r="P65" s="39" t="str">
-        <f t="shared" si="31"/>
+        <f>IF($L65=1,"완료",IF($F65*1&gt;$B$3*1,"-",IF($G65*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>지연</v>
       </c>
       <c r="Q65" s="39"/>
@@ -8388,7 +8634,7 @@
       <c r="AL65" s="44"/>
       <c r="AM65" s="44"/>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39">
       <c r="A66" s="43"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
@@ -8410,22 +8656,22 @@
         <f>IF($F66*1&gt;$B$3*1,0,IF($G66*1&lt;$B$3*1,1,NETWORKDAYS($F66,$B$3,기타!$B$2:$B$6)/$H66))</f>
         <v>1</v>
       </c>
-      <c r="J66" s="84"/>
-      <c r="K66" s="84"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
       <c r="L66" s="36"/>
       <c r="M66" s="38">
         <v>2</v>
       </c>
       <c r="N66" s="78">
-        <f t="shared" si="29"/>
+        <f>I66*M66</f>
         <v>2</v>
       </c>
       <c r="O66" s="78">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="P66" s="84"/>
-      <c r="Q66" s="84"/>
+        <f>M66*L66</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
       <c r="S66" s="44"/>
       <c r="T66" s="44"/>
       <c r="U66" s="44"/>
@@ -8448,7 +8694,7 @@
       <c r="AL66" s="44"/>
       <c r="AM66" s="44"/>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39">
       <c r="A67" s="43"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
@@ -8477,15 +8723,15 @@
         <v>3</v>
       </c>
       <c r="N67" s="78">
-        <f t="shared" si="29"/>
+        <f>I67*M67</f>
         <v>3</v>
       </c>
       <c r="O67" s="78">
-        <f t="shared" si="30"/>
+        <f>M67*L67</f>
         <v>0</v>
       </c>
       <c r="P67" s="39" t="str">
-        <f t="shared" si="31"/>
+        <f>IF($L67=1,"완료",IF($F67*1&gt;$B$3*1,"-",IF($G67*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>지연</v>
       </c>
       <c r="Q67" s="39"/>
@@ -8511,7 +8757,7 @@
       <c r="AL67" s="44"/>
       <c r="AM67" s="44"/>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39">
       <c r="A68" s="43"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -8546,29 +8792,29 @@
       </c>
       <c r="P68" s="31"/>
       <c r="Q68" s="31"/>
-      <c r="S68" s="90"/>
-      <c r="T68" s="90"/>
-      <c r="U68" s="90"/>
-      <c r="V68" s="90"/>
-      <c r="W68" s="90"/>
-      <c r="X68" s="90"/>
-      <c r="Y68" s="90"/>
-      <c r="Z68" s="90"/>
-      <c r="AA68" s="90"/>
-      <c r="AB68" s="90"/>
-      <c r="AC68" s="90"/>
-      <c r="AD68" s="90"/>
-      <c r="AE68" s="90"/>
-      <c r="AF68" s="90"/>
-      <c r="AG68" s="90"/>
-      <c r="AH68" s="90"/>
-      <c r="AI68" s="90"/>
-      <c r="AJ68" s="90"/>
-      <c r="AK68" s="90"/>
-      <c r="AL68" s="90"/>
-      <c r="AM68" s="90"/>
-    </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S68" s="89"/>
+      <c r="T68" s="89"/>
+      <c r="U68" s="89"/>
+      <c r="V68" s="89"/>
+      <c r="W68" s="89"/>
+      <c r="X68" s="89"/>
+      <c r="Y68" s="89"/>
+      <c r="Z68" s="89"/>
+      <c r="AA68" s="89"/>
+      <c r="AB68" s="89"/>
+      <c r="AC68" s="89"/>
+      <c r="AD68" s="89"/>
+      <c r="AE68" s="89"/>
+      <c r="AF68" s="89"/>
+      <c r="AG68" s="89"/>
+      <c r="AH68" s="89"/>
+      <c r="AI68" s="89"/>
+      <c r="AJ68" s="89"/>
+      <c r="AK68" s="89"/>
+      <c r="AL68" s="89"/>
+      <c r="AM68" s="89"/>
+    </row>
+    <row r="69" spans="1:39">
       <c r="A69" s="43"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
@@ -8597,15 +8843,15 @@
         <v>3</v>
       </c>
       <c r="N69" s="78">
-        <f t="shared" si="29"/>
+        <f>I69*M69</f>
         <v>3</v>
       </c>
       <c r="O69" s="78">
-        <f t="shared" ref="O69:O73" si="32">M69*L69</f>
+        <f>M69*L69</f>
         <v>0</v>
       </c>
       <c r="P69" s="39" t="str">
-        <f t="shared" ref="P69:P73" si="33">IF($L69=1,"완료", IF($F69*1&gt;$B$3*1,"-",IF($G69*1&lt;$B$3*1,"지연","진행중")))</f>
+        <f>IF($L69=1,"완료",IF($F69*1&gt;$B$3*1,"-",IF($G69*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>지연</v>
       </c>
       <c r="Q69" s="39"/>
@@ -8631,7 +8877,7 @@
       <c r="AL69" s="44"/>
       <c r="AM69" s="44"/>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39">
       <c r="A70" s="43"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -8660,15 +8906,15 @@
         <v>3</v>
       </c>
       <c r="N70" s="78">
-        <f t="shared" si="29"/>
+        <f>I70*M70</f>
         <v>3</v>
       </c>
       <c r="O70" s="78">
-        <f t="shared" si="32"/>
+        <f>M70*L70</f>
         <v>0</v>
       </c>
       <c r="P70" s="39" t="str">
-        <f t="shared" si="33"/>
+        <f>IF($L70=1,"완료",IF($F70*1&gt;$B$3*1,"-",IF($G70*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>지연</v>
       </c>
       <c r="Q70" s="39"/>
@@ -8694,7 +8940,7 @@
       <c r="AL70" s="44"/>
       <c r="AM70" s="44"/>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39">
       <c r="A71" s="43"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
@@ -8723,15 +8969,15 @@
         <v>3</v>
       </c>
       <c r="N71" s="78">
-        <f t="shared" si="29"/>
+        <f>I71*M71</f>
         <v>3</v>
       </c>
       <c r="O71" s="78">
-        <f t="shared" si="32"/>
+        <f>M71*L71</f>
         <v>0</v>
       </c>
       <c r="P71" s="39" t="str">
-        <f t="shared" si="33"/>
+        <f>IF($L71=1,"완료",IF($F71*1&gt;$B$3*1,"-",IF($G71*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>지연</v>
       </c>
       <c r="Q71" s="39"/>
@@ -8757,7 +9003,7 @@
       <c r="AL71" s="44"/>
       <c r="AM71" s="44"/>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39">
       <c r="A72" s="43"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
@@ -8779,22 +9025,22 @@
         <f>IF($F72*1&gt;$B$3*1,0,IF($G72*1&lt;$B$3*1,1,NETWORKDAYS($F72,$B$3,기타!$B$2:$B$6)/$H72))</f>
         <v>1</v>
       </c>
-      <c r="J72" s="84"/>
-      <c r="K72" s="84"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
       <c r="L72" s="36"/>
       <c r="M72" s="38">
         <v>3</v>
       </c>
       <c r="N72" s="78">
-        <f t="shared" si="29"/>
+        <f>I72*M72</f>
         <v>3</v>
       </c>
       <c r="O72" s="78">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P72" s="84"/>
-      <c r="Q72" s="84"/>
+        <f>M72*L72</f>
+        <v>0</v>
+      </c>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
       <c r="S72" s="44"/>
       <c r="T72" s="44"/>
       <c r="U72" s="44"/>
@@ -8817,7 +9063,7 @@
       <c r="AL72" s="44"/>
       <c r="AM72" s="44"/>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39">
       <c r="A73" s="43"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -8846,15 +9092,15 @@
         <v>3</v>
       </c>
       <c r="N73" s="78">
-        <f t="shared" si="29"/>
+        <f>I73*M73</f>
         <v>3</v>
       </c>
       <c r="O73" s="78">
-        <f t="shared" si="32"/>
+        <f>M73*L73</f>
         <v>0</v>
       </c>
       <c r="P73" s="39" t="str">
-        <f t="shared" si="33"/>
+        <f>IF($L73=1,"완료",IF($F73*1&gt;$B$3*1,"-",IF($G73*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>지연</v>
       </c>
       <c r="Q73" s="39"/>
@@ -8880,7 +9126,7 @@
       <c r="AL73" s="44"/>
       <c r="AM73" s="44"/>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39">
       <c r="A74" s="43"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -8915,29 +9161,29 @@
       </c>
       <c r="P74" s="31"/>
       <c r="Q74" s="31"/>
-      <c r="S74" s="90"/>
-      <c r="T74" s="90"/>
-      <c r="U74" s="90"/>
-      <c r="V74" s="90"/>
-      <c r="W74" s="90"/>
-      <c r="X74" s="90"/>
-      <c r="Y74" s="90"/>
-      <c r="Z74" s="90"/>
-      <c r="AA74" s="90"/>
-      <c r="AB74" s="90"/>
-      <c r="AC74" s="90"/>
-      <c r="AD74" s="90"/>
-      <c r="AE74" s="90"/>
-      <c r="AF74" s="90"/>
-      <c r="AG74" s="90"/>
-      <c r="AH74" s="90"/>
-      <c r="AI74" s="90"/>
-      <c r="AJ74" s="90"/>
-      <c r="AK74" s="90"/>
-      <c r="AL74" s="90"/>
-      <c r="AM74" s="90"/>
-    </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S74" s="89"/>
+      <c r="T74" s="89"/>
+      <c r="U74" s="89"/>
+      <c r="V74" s="89"/>
+      <c r="W74" s="89"/>
+      <c r="X74" s="89"/>
+      <c r="Y74" s="89"/>
+      <c r="Z74" s="89"/>
+      <c r="AA74" s="89"/>
+      <c r="AB74" s="89"/>
+      <c r="AC74" s="89"/>
+      <c r="AD74" s="89"/>
+      <c r="AE74" s="89"/>
+      <c r="AF74" s="89"/>
+      <c r="AG74" s="89"/>
+      <c r="AH74" s="89"/>
+      <c r="AI74" s="89"/>
+      <c r="AJ74" s="89"/>
+      <c r="AK74" s="89"/>
+      <c r="AL74" s="89"/>
+      <c r="AM74" s="89"/>
+    </row>
+    <row r="75" spans="1:39">
       <c r="A75" s="43"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
@@ -8970,11 +9216,11 @@
         <v>0</v>
       </c>
       <c r="O75" s="78">
-        <f t="shared" ref="O75:O81" si="34">M75*L75</f>
+        <f>M75*L75</f>
         <v>0</v>
       </c>
       <c r="P75" s="39" t="str">
-        <f t="shared" ref="P75" si="35">IF($L75=1,"완료", IF($F75*1&gt;$B$3*1,"-",IF($G75*1&lt;$B$3*1,"지연","진행중")))</f>
+        <f>IF($L75=1,"완료",IF($F75*1&gt;$B$3*1,"-",IF($G75*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>-</v>
       </c>
       <c r="Q75" s="39"/>
@@ -9000,7 +9246,7 @@
       <c r="AL75" s="44"/>
       <c r="AM75" s="44"/>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39">
       <c r="A76" s="43"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
@@ -9022,22 +9268,22 @@
         <f>IF($F76*1&gt;$B$3*1,0,IF($G76*1&lt;$B$3*1,1,NETWORKDAYS($F76,$B$3,기타!$B$2:$B$6)/$H76))</f>
         <v>0</v>
       </c>
-      <c r="J76" s="84"/>
-      <c r="K76" s="84"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
       <c r="L76" s="36"/>
       <c r="M76" s="38">
         <v>2.5</v>
       </c>
       <c r="N76" s="78">
-        <f t="shared" si="29"/>
+        <f>I76*M76</f>
         <v>0</v>
       </c>
       <c r="O76" s="78">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="P76" s="84"/>
-      <c r="Q76" s="84"/>
+        <f>M76*L76</f>
+        <v>0</v>
+      </c>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
       <c r="S76" s="44"/>
       <c r="T76" s="44"/>
       <c r="U76" s="44"/>
@@ -9060,7 +9306,7 @@
       <c r="AL76" s="44"/>
       <c r="AM76" s="44"/>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39">
       <c r="A77" s="43"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -9082,8 +9328,8 @@
         <f>IF($F77*1&gt;$B$3*1,0,IF($G77*1&lt;$B$3*1,1,NETWORKDAYS($F77,$B$3,기타!$B$2:$B$6)/$H77))</f>
         <v>0</v>
       </c>
-      <c r="J77" s="84"/>
-      <c r="K77" s="84"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="39"/>
       <c r="L77" s="36"/>
       <c r="M77" s="38">
         <v>2.5</v>
@@ -9093,11 +9339,11 @@
         <v>0</v>
       </c>
       <c r="O77" s="78">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="84"/>
-      <c r="Q77" s="84"/>
+        <f>M77*L77</f>
+        <v>0</v>
+      </c>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
       <c r="S77" s="44"/>
       <c r="T77" s="44"/>
       <c r="U77" s="44"/>
@@ -9120,7 +9366,7 @@
       <c r="AL77" s="44"/>
       <c r="AM77" s="44"/>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39">
       <c r="A78" s="43"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -9142,22 +9388,22 @@
         <f>IF($F78*1&gt;$B$3*1,0,IF($G78*1&lt;$B$3*1,1,NETWORKDAYS($F78,$B$3,기타!$B$2:$B$6)/$H78))</f>
         <v>0</v>
       </c>
-      <c r="J78" s="84"/>
-      <c r="K78" s="84"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
       <c r="L78" s="36"/>
       <c r="M78" s="38">
         <v>2.5</v>
       </c>
       <c r="N78" s="78">
-        <f t="shared" si="29"/>
+        <f>I78*M78</f>
         <v>0</v>
       </c>
       <c r="O78" s="78">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="P78" s="84"/>
-      <c r="Q78" s="84"/>
+        <f>M78*L78</f>
+        <v>0</v>
+      </c>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
       <c r="S78" s="44"/>
       <c r="T78" s="44"/>
       <c r="U78" s="44"/>
@@ -9180,7 +9426,7 @@
       <c r="AL78" s="44"/>
       <c r="AM78" s="44"/>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:39">
       <c r="A79" s="43"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -9215,29 +9461,29 @@
       </c>
       <c r="P79" s="31"/>
       <c r="Q79" s="31"/>
-      <c r="S79" s="90"/>
-      <c r="T79" s="90"/>
-      <c r="U79" s="90"/>
-      <c r="V79" s="90"/>
-      <c r="W79" s="90"/>
-      <c r="X79" s="90"/>
-      <c r="Y79" s="90"/>
-      <c r="Z79" s="90"/>
-      <c r="AA79" s="90"/>
-      <c r="AB79" s="90"/>
-      <c r="AC79" s="90"/>
-      <c r="AD79" s="90"/>
-      <c r="AE79" s="90"/>
-      <c r="AF79" s="90"/>
-      <c r="AG79" s="90"/>
-      <c r="AH79" s="90"/>
-      <c r="AI79" s="90"/>
-      <c r="AJ79" s="90"/>
-      <c r="AK79" s="90"/>
-      <c r="AL79" s="90"/>
-      <c r="AM79" s="90"/>
-    </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S79" s="89"/>
+      <c r="T79" s="89"/>
+      <c r="U79" s="89"/>
+      <c r="V79" s="89"/>
+      <c r="W79" s="89"/>
+      <c r="X79" s="89"/>
+      <c r="Y79" s="89"/>
+      <c r="Z79" s="89"/>
+      <c r="AA79" s="89"/>
+      <c r="AB79" s="89"/>
+      <c r="AC79" s="89"/>
+      <c r="AD79" s="89"/>
+      <c r="AE79" s="89"/>
+      <c r="AF79" s="89"/>
+      <c r="AG79" s="89"/>
+      <c r="AH79" s="89"/>
+      <c r="AI79" s="89"/>
+      <c r="AJ79" s="89"/>
+      <c r="AK79" s="89"/>
+      <c r="AL79" s="89"/>
+      <c r="AM79" s="89"/>
+    </row>
+    <row r="80" spans="1:39">
       <c r="A80" s="43"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -9266,15 +9512,15 @@
         <v>5</v>
       </c>
       <c r="N80" s="78">
-        <f t="shared" si="29"/>
+        <f>I80*M80</f>
         <v>0</v>
       </c>
       <c r="O80" s="78">
-        <f t="shared" si="34"/>
+        <f>M80*L80</f>
         <v>0</v>
       </c>
       <c r="P80" s="39" t="str">
-        <f t="shared" ref="P80" si="36">IF($L80=1,"완료", IF($F80*1&gt;$B$3*1,"-",IF($G80*1&lt;$B$3*1,"지연","진행중")))</f>
+        <f>IF($L80=1,"완료",IF($F80*1&gt;$B$3*1,"-",IF($G80*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>-</v>
       </c>
       <c r="Q80" s="39"/>
@@ -9300,7 +9546,7 @@
       <c r="AL80" s="44"/>
       <c r="AM80" s="44"/>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:39">
       <c r="A81" s="43"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -9322,22 +9568,22 @@
         <f>IF($F81*1&gt;$B$3*1,0,IF($G81*1&lt;$B$3*1,1,NETWORKDAYS($F81,$B$3,기타!$B$2:$B$6)/$H81))</f>
         <v>0</v>
       </c>
-      <c r="J81" s="84"/>
-      <c r="K81" s="84"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
       <c r="L81" s="36"/>
       <c r="M81" s="38">
         <v>5</v>
       </c>
       <c r="N81" s="78">
-        <f t="shared" si="29"/>
+        <f>I81*M81</f>
         <v>0</v>
       </c>
       <c r="O81" s="78">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="P81" s="84"/>
-      <c r="Q81" s="84"/>
+        <f>M81*L81</f>
+        <v>0</v>
+      </c>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
       <c r="S81" s="44"/>
       <c r="T81" s="44"/>
       <c r="U81" s="44"/>
@@ -9360,7 +9606,7 @@
       <c r="AL81" s="44"/>
       <c r="AM81" s="44"/>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:39">
       <c r="A82" s="43"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -9395,29 +9641,29 @@
       </c>
       <c r="P82" s="31"/>
       <c r="Q82" s="31"/>
-      <c r="S82" s="90"/>
-      <c r="T82" s="90"/>
-      <c r="U82" s="90"/>
-      <c r="V82" s="90"/>
-      <c r="W82" s="90"/>
-      <c r="X82" s="90"/>
-      <c r="Y82" s="90"/>
-      <c r="Z82" s="90"/>
-      <c r="AA82" s="90"/>
-      <c r="AB82" s="90"/>
-      <c r="AC82" s="90"/>
-      <c r="AD82" s="90"/>
-      <c r="AE82" s="90"/>
-      <c r="AF82" s="90"/>
-      <c r="AG82" s="90"/>
-      <c r="AH82" s="90"/>
-      <c r="AI82" s="90"/>
-      <c r="AJ82" s="90"/>
-      <c r="AK82" s="90"/>
-      <c r="AL82" s="90"/>
-      <c r="AM82" s="90"/>
-    </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S82" s="89"/>
+      <c r="T82" s="89"/>
+      <c r="U82" s="89"/>
+      <c r="V82" s="89"/>
+      <c r="W82" s="89"/>
+      <c r="X82" s="89"/>
+      <c r="Y82" s="89"/>
+      <c r="Z82" s="89"/>
+      <c r="AA82" s="89"/>
+      <c r="AB82" s="89"/>
+      <c r="AC82" s="89"/>
+      <c r="AD82" s="89"/>
+      <c r="AE82" s="89"/>
+      <c r="AF82" s="89"/>
+      <c r="AG82" s="89"/>
+      <c r="AH82" s="89"/>
+      <c r="AI82" s="89"/>
+      <c r="AJ82" s="89"/>
+      <c r="AK82" s="89"/>
+      <c r="AL82" s="89"/>
+      <c r="AM82" s="89"/>
+    </row>
+    <row r="83" spans="1:39">
       <c r="A83" s="43"/>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
@@ -9446,15 +9692,15 @@
         <v>1.5</v>
       </c>
       <c r="N83" s="78">
-        <f t="shared" ref="N83:N86" si="37">I83*M83</f>
+        <f>I83*M83</f>
         <v>0</v>
       </c>
       <c r="O83" s="78">
-        <f t="shared" ref="O83:O86" si="38">M83*L83</f>
+        <f>M83*L83</f>
         <v>0</v>
       </c>
       <c r="P83" s="39" t="str">
-        <f t="shared" ref="P83:P86" si="39">IF($L83=1,"완료", IF($F83*1&gt;$B$3*1,"-",IF($G83*1&lt;$B$3*1,"지연","진행중")))</f>
+        <f>IF($L83=1,"완료",IF($F83*1&gt;$B$3*1,"-",IF($G83*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>-</v>
       </c>
       <c r="Q83" s="39"/>
@@ -9480,7 +9726,7 @@
       <c r="AL83" s="44"/>
       <c r="AM83" s="44"/>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:39">
       <c r="A84" s="43"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
@@ -9502,8 +9748,8 @@
         <f>IF($F84*1&gt;$B$3*1,0,IF($G84*1&lt;$B$3*1,1,NETWORKDAYS($F84,$B$3,기타!$B$2:$B$6)/$H84))</f>
         <v>0</v>
       </c>
-      <c r="J84" s="84"/>
-      <c r="K84" s="84"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="39"/>
       <c r="L84" s="36"/>
       <c r="M84" s="38">
         <v>1.5</v>
@@ -9514,8 +9760,8 @@
       <c r="O84" s="78">
         <v>0</v>
       </c>
-      <c r="P84" s="84"/>
-      <c r="Q84" s="84"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39"/>
       <c r="S84" s="44"/>
       <c r="T84" s="44"/>
       <c r="U84" s="44"/>
@@ -9538,7 +9784,7 @@
       <c r="AL84" s="44"/>
       <c r="AM84" s="44"/>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:39">
       <c r="A85" s="43"/>
       <c r="B85" s="20"/>
       <c r="C85" s="19"/>
@@ -9567,15 +9813,15 @@
         <v>1</v>
       </c>
       <c r="N85" s="78">
-        <f t="shared" si="37"/>
+        <f>I85*M85</f>
         <v>0</v>
       </c>
       <c r="O85" s="78">
-        <f t="shared" si="38"/>
+        <f>M85*L85</f>
         <v>0</v>
       </c>
       <c r="P85" s="39" t="str">
-        <f t="shared" si="39"/>
+        <f>IF($L85=1,"완료",IF($F85*1&gt;$B$3*1,"-",IF($G85*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>-</v>
       </c>
       <c r="Q85" s="39"/>
@@ -9601,7 +9847,7 @@
       <c r="AL85" s="44"/>
       <c r="AM85" s="44"/>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:39">
       <c r="A86" s="43"/>
       <c r="B86" s="20"/>
       <c r="C86" s="19"/>
@@ -9630,15 +9876,15 @@
         <v>1</v>
       </c>
       <c r="N86" s="78">
-        <f t="shared" si="37"/>
+        <f>I86*M86</f>
         <v>0</v>
       </c>
       <c r="O86" s="78">
-        <f t="shared" si="38"/>
+        <f>M86*L86</f>
         <v>0</v>
       </c>
       <c r="P86" s="39" t="str">
-        <f t="shared" si="39"/>
+        <f>IF($L86=1,"완료",IF($F86*1&gt;$B$3*1,"-",IF($G86*1&lt;$B$3*1,"지연","진행중")))</f>
         <v>-</v>
       </c>
       <c r="Q86" s="39"/>
@@ -9667,236 +9913,236 @@
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="N6:N7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="O6:O7"/>
     <mergeCell ref="Q6:Q7"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="S3:AM3">
-    <cfRule type="expression" dxfId="36" priority="75">
+    <cfRule type="expression" dxfId="36" priority="75" operator="" text="">
       <formula>IF(AND($B$3*1&gt;=(S4&amp;"-"&amp;S5)*1,$B$3*1&lt;=(S4&amp;"-"&amp;S6)*1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3">
-    <cfRule type="expression" dxfId="35" priority="74">
+    <cfRule type="expression" dxfId="35" priority="74" operator="" text="">
       <formula>IF(AND($B$3*1&gt;=(T4&amp;"-"&amp;T5)*1,$B$3*1&lt;=(T4&amp;"-"&amp;T6)*1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8 R8 P69:Q73 P75:Q78 P80:Q81">
-    <cfRule type="expression" dxfId="34" priority="72">
+    <cfRule type="expression" dxfId="34" priority="72" operator="" text="">
       <formula>IF($P8="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12 R12">
-    <cfRule type="expression" dxfId="33" priority="68">
+    <cfRule type="expression" dxfId="33" priority="68" operator="" text="">
       <formula>IF($P12="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="expression" dxfId="32" priority="64">
+    <cfRule type="expression" dxfId="32" priority="64" operator="" text="">
       <formula>IF(AND($B$3*1&gt;=(S4&amp;"-"&amp;S5)*1,$B$3*1&lt;=(S4&amp;"-"&amp;S6)*1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15:P17">
-    <cfRule type="expression" dxfId="31" priority="63">
+    <cfRule type="expression" dxfId="31" priority="63" operator="" text="">
       <formula>IF($P15="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P21">
-    <cfRule type="expression" dxfId="30" priority="62">
+    <cfRule type="expression" dxfId="30" priority="62" operator="" text="">
       <formula>IF($P20="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:P26">
-    <cfRule type="expression" dxfId="29" priority="61">
+    <cfRule type="expression" dxfId="29" priority="61" operator="" text="">
       <formula>IF($P24="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:P29">
-    <cfRule type="expression" dxfId="28" priority="60">
+    <cfRule type="expression" dxfId="28" priority="60" operator="" text="">
       <formula>IF($P28="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31">
-    <cfRule type="expression" dxfId="27" priority="59">
+    <cfRule type="expression" dxfId="27" priority="59" operator="" text="">
       <formula>IF($P31="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33:P34">
-    <cfRule type="expression" dxfId="26" priority="58">
+    <cfRule type="expression" dxfId="26" priority="58" operator="" text="">
       <formula>IF($P33="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36:P39">
-    <cfRule type="expression" dxfId="25" priority="57">
+    <cfRule type="expression" dxfId="25" priority="57" operator="" text="">
       <formula>IF($P36="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P42:P44">
-    <cfRule type="expression" dxfId="24" priority="56">
+    <cfRule type="expression" dxfId="24" priority="56" operator="" text="">
       <formula>IF($P42="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46:P48">
-    <cfRule type="expression" dxfId="23" priority="55">
+    <cfRule type="expression" dxfId="23" priority="55" operator="" text="">
       <formula>IF($P46="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51:P52">
-    <cfRule type="expression" dxfId="22" priority="54">
+    <cfRule type="expression" dxfId="22" priority="54" operator="" text="">
       <formula>IF($P51="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P55">
-    <cfRule type="expression" dxfId="21" priority="53">
+    <cfRule type="expression" dxfId="21" priority="53" operator="" text="">
       <formula>IF($P55="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P59">
-    <cfRule type="expression" dxfId="20" priority="52">
+    <cfRule type="expression" dxfId="20" priority="52" operator="" text="">
       <formula>IF($P59="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P61:P67">
-    <cfRule type="expression" dxfId="19" priority="51">
+    <cfRule type="expression" dxfId="19" priority="51" operator="" text="">
       <formula>IF($P61="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P83:P86">
-    <cfRule type="expression" dxfId="18" priority="47">
+    <cfRule type="expression" dxfId="18" priority="47" operator="" text="">
       <formula>IF($P83="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="expression" dxfId="17" priority="37">
+    <cfRule type="expression" dxfId="17" priority="37" operator="" text="">
       <formula>IF($P8="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="expression" dxfId="16" priority="36">
+    <cfRule type="expression" dxfId="16" priority="36" operator="" text="">
       <formula>IF($P12="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15:Q17">
-    <cfRule type="expression" dxfId="15" priority="35">
+    <cfRule type="expression" dxfId="15" priority="35" operator="" text="">
       <formula>IF($P15="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20:Q21">
-    <cfRule type="expression" dxfId="14" priority="34">
+    <cfRule type="expression" dxfId="14" priority="34" operator="" text="">
       <formula>IF($P20="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24:Q26">
-    <cfRule type="expression" dxfId="13" priority="33">
+    <cfRule type="expression" dxfId="13" priority="33" operator="" text="">
       <formula>IF($P24="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28:Q29">
-    <cfRule type="expression" dxfId="12" priority="32">
+    <cfRule type="expression" dxfId="12" priority="32" operator="" text="">
       <formula>IF($P28="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q31">
-    <cfRule type="expression" dxfId="11" priority="31">
+    <cfRule type="expression" dxfId="11" priority="31" operator="" text="">
       <formula>IF($P31="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q33:Q34">
-    <cfRule type="expression" dxfId="10" priority="30">
+    <cfRule type="expression" dxfId="10" priority="30" operator="" text="">
       <formula>IF($P33="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q36:Q39">
-    <cfRule type="expression" dxfId="9" priority="29">
+    <cfRule type="expression" dxfId="9" priority="29" operator="" text="">
       <formula>IF($P36="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q42:Q44">
-    <cfRule type="expression" dxfId="8" priority="28">
+    <cfRule type="expression" dxfId="8" priority="28" operator="" text="">
       <formula>IF($P42="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q46:Q48">
-    <cfRule type="expression" dxfId="7" priority="27">
+    <cfRule type="expression" dxfId="7" priority="27" operator="" text="">
       <formula>IF($P46="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q51:Q52">
-    <cfRule type="expression" dxfId="6" priority="26">
+    <cfRule type="expression" dxfId="6" priority="26" operator="" text="">
       <formula>IF($P51="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q55">
-    <cfRule type="expression" dxfId="5" priority="25">
+    <cfRule type="expression" dxfId="5" priority="25" operator="" text="">
       <formula>IF($P55="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q59">
-    <cfRule type="expression" dxfId="4" priority="24">
+    <cfRule type="expression" dxfId="4" priority="24" operator="" text="">
       <formula>IF($P59="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q61:Q67">
-    <cfRule type="expression" dxfId="3" priority="23">
+    <cfRule type="expression" dxfId="3" priority="23" operator="" text="">
       <formula>IF($P61="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q83:Q86">
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="2" priority="19" operator="" text="">
       <formula>IF($P83="지연",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:AM53 S55:AM86">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2" operator="" text="">
       <formula>IF(OR(AND($F8*1&gt;=(S$4&amp;"/"&amp;S$5)*1,$F8*1&lt;=(S$4&amp;"-"&amp;S$6)*1),AND($G8*1&gt;=(S$4&amp;"/"&amp;S$5)*1,$G8*1&lt;=(S$4&amp;"/"&amp;S$6)*1)),1,IF(AND((S$4&amp;"/"&amp;S$5)*1&gt;$F8*1,(S$4&amp;"/"&amp;S$6)*1&lt;$G8*1),1,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:AM54">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1" operator="" text="">
       <formula>IF(OR(AND($F54*1&gt;=(S$4&amp;"/"&amp;S$5)*1,$F54*1&lt;=(S$4&amp;"-"&amp;S$6)*1),AND($G54*1&gt;=(S$4&amp;"/"&amp;S$5)*1,$G54*1&lt;=(S$4&amp;"/"&amp;S$6)*1)),1,IF(AND((S$4&amp;"/"&amp;S$5)*1&gt;$F54*1,(S$4&amp;"/"&amp;S$6)*1&lt;$G54*1),1,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" style="1" width="11.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="11.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="121"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="116"/>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -9904,7 +10150,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -9912,7 +10158,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>240</v>
       </c>
@@ -9920,7 +10166,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>240</v>
       </c>
@@ -9928,7 +10174,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -9940,7 +10186,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>